--- a/Financials/CBOE Global Markets.xlsx
+++ b/Financials/CBOE Global Markets.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Financials/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Financials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6548B7FD-5B19-8945-B65A-7CC99D0E7E63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94994CB2-F218-1548-B3E8-C3BBD32BE388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="252">
   <si>
     <t>2010 Y</t>
   </si>
@@ -712,9 +712,6 @@
     <t>Enterprise Value</t>
   </si>
   <si>
-    <t>Daily Change %</t>
-  </si>
-  <si>
     <t>Cost of Debt</t>
   </si>
   <si>
@@ -824,6 +821,15 @@
   </si>
   <si>
     <t>WACC</t>
+  </si>
+  <si>
+    <t>Profit Margin</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>Daily Change (%)</t>
   </si>
 </sst>
 </file>
@@ -836,7 +842,7 @@
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -993,6 +999,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="15">
     <fill>
@@ -1076,7 +1088,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -1121,65 +1133,8 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </left>
       <right/>
       <top/>
@@ -1188,23 +1143,222 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </left>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1213,8 +1367,76 @@
         <color theme="0" tint="-0.14999847407452621"/>
       </left>
       <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1222,7 +1444,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1288,248 +1510,261 @@
     <xf numFmtId="4" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="8" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="4" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="11" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="11" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="11" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="9" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="9" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="9" fontId="14" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="9" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="14" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="9" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="18" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="13" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+    <xf numFmtId="9" fontId="27" fillId="10" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="13" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="9" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="14" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="10" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="13" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="10" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="10" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="10" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="24" fillId="11" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="10" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="20" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="20" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="16" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="20" fillId="11" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="20" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="21" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="20" fillId="11" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="24" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="16" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="16" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="20" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="20" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="20" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="9" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="21" fillId="9" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="9" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="21" fillId="9" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="11" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="21" fillId="11" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="11" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="21" fillId="11" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1564,13 +1799,11 @@
       <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="Growth"/>
-      <sheetName val="Full Portfolio (Concentrated)"/>
-      <sheetName val="Value"/>
-      <sheetName val="Concentrated"/>
+      <sheetName val="High Growth"/>
+      <sheetName val="GARP"/>
       <sheetName val="Watchlist"/>
-      <sheetName val="Wide Moats"/>
-      <sheetName val="Sheet2"/>
+      <sheetName val="Small + Speculative"/>
+      <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
       <sheetName val="Aggressive Growth HF Buys"/>
@@ -1587,7 +1820,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.8399999999999999E-2</v>
+            <v>4.2709999999999998E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1600,8 +1833,6 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1727,13 +1958,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>165.8723</v>
-    <v>114.17</v>
-    <v>0.56969999999999998</v>
-    <v>1.23</v>
-    <v>7.5729999999999999E-3</v>
-    <v>5.36</v>
-    <v>3.2705000000000005E-2</v>
+    <v>183.74</v>
+    <v>116.11</v>
+    <v>0.59699999999999998</v>
+    <v>-1.93</v>
+    <v>-1.0592999999999998E-2</v>
+    <v>0.01</v>
+    <v>5.5479999999999997E-5</v>
     <v>USD</v>
     <v>Cboe Global Markets, Inc. is a provider of market infrastructure and tradable products, delivering trading, and clearing and investment solutions to market participants. Its segments include Options, North American Equities, Europe and Asia Pacific, Futures, Global FX., and Digital. The Options segment includes options on market indices (index options), as well as on the stocks of individual corporations (equity options). The North American Equities segment includes listed United States equities transaction services. The Europe and Asia Pacific segment includes the pan-European listed equities and derivatives transaction services, exchange-traded products (ETPs), exchange-traded commodities, and international depository receipts. The Futures segment includes transaction services provided by its electronic futures exchange, Cboe Futures Exchange, LLC (CFE). The Global FX segment includes institutional foreign exchange (FX) trading services. The Digital segment includes Cboe Digital.</v>
     <v>1543</v>
@@ -1741,25 +1972,25 @@
     <v>BATS</v>
     <v>BATS</v>
     <v>433 WEST VAN BUREN STREET, CHICAGO, IL, 60607 US</v>
-    <v>165.38</v>
+    <v>183.74</v>
     <v>Investment Banking &amp; Investment Services</v>
     <v>Stock</v>
-    <v>45225.993370161719</v>
+    <v>45261.984934907028</v>
     <v>0</v>
-    <v>162.22999999999999</v>
-    <v>17267840685</v>
+    <v>180.26</v>
+    <v>19027524560</v>
     <v>Cboe Global Markets, Inc.</v>
     <v>Cboe Global Markets, Inc.</v>
-    <v>162.22999999999999</v>
+    <v>182.23</v>
     <v>62.533999999999999</v>
-    <v>162.41999999999999</v>
-    <v>163.65</v>
-    <v>169.25</v>
-    <v>105516900</v>
+    <v>182.19</v>
+    <v>180.26</v>
+    <v>180.27</v>
+    <v>105556000</v>
     <v>CBOE</v>
     <v>Cboe Global Markets, Inc. (BATS:CBOE)</v>
-    <v>677448</v>
-    <v>713886</v>
+    <v>1392995</v>
+    <v>884704</v>
     <v>2006</v>
   </rv>
   <rv s="2">
@@ -1924,9 +2155,8 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>BATS BZX Real-Time Last Price</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -1981,7 +2211,6 @@
     <k n="Price" t="s"/>
     <k n="Change" t="s"/>
     <k n="Change (%)" t="s"/>
-    <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
     <k n="Price (Extended hours)" t="s"/>
     <k n="Change (Extended hours)" t="s"/>
@@ -2371,8 +2600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XEY196"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
+    <sheetView topLeftCell="A144" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="K36" sqref="K36:N36"/>
     </sheetView>
   </sheetViews>
@@ -15673,448 +15902,470 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F40E67AF-C857-6349-A2BE-2C2DF57A5FFA}">
-  <dimension ref="A1:P110"/>
+  <dimension ref="A1:R110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16" width="18.83203125" customWidth="1"/>
+    <col min="1" max="18" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="116" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="115" t="e" vm="1">
+    <row r="1" spans="1:18" s="118" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="117" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="115"/>
-      <c r="N1" s="115"/>
-      <c r="O1" s="115"/>
-      <c r="P1" s="115"/>
-    </row>
-    <row r="2" spans="1:16" s="116" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="115"/>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="115"/>
-      <c r="N2" s="115"/>
-      <c r="O2" s="115"/>
-      <c r="P2" s="115"/>
-    </row>
-    <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="39" cm="1">
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="117"/>
+      <c r="L1" s="117"/>
+      <c r="M1" s="117"/>
+      <c r="N1" s="117"/>
+      <c r="O1" s="117"/>
+      <c r="P1" s="117"/>
+    </row>
+    <row r="2" spans="1:18" s="118" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="117"/>
+      <c r="B2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="117"/>
+      <c r="L2" s="117"/>
+      <c r="M2" s="117"/>
+      <c r="N2" s="117"/>
+      <c r="O2" s="117"/>
+      <c r="P2" s="117"/>
+    </row>
+    <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="48" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>17267840685</v>
-      </c>
-      <c r="B3" s="40" t="s">
+        <v>19027524560</v>
+      </c>
+      <c r="B3" s="49" t="s">
         <v>201</v>
       </c>
-      <c r="C3" s="41">
+      <c r="C3" s="50">
         <f>Financials!O8*0.01</f>
         <v>0.47200000000000003</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="49" t="s">
         <v>202</v>
       </c>
-      <c r="E3" s="41">
+      <c r="E3" s="50">
         <f>SUM(C11:E11)/3</f>
         <v>0.17513966866500583</v>
       </c>
-      <c r="F3" s="42" t="s">
+      <c r="F3" s="51" t="s">
         <v>203</v>
       </c>
-      <c r="G3" s="43">
+      <c r="G3" s="52">
         <f>SUM(Financials!K129:N129)/4</f>
         <v>-1.2853612670959552E-2</v>
       </c>
-      <c r="H3" s="42" t="s">
+      <c r="H3" s="51" t="s">
         <v>204</v>
       </c>
-      <c r="I3" s="44">
-        <f>J14*(1+I7)/(I6-I7)</f>
-        <v>22862942370.69566</v>
-      </c>
-      <c r="J3" s="40" t="s">
+      <c r="I3" s="53">
+        <f>J15*(1+I7)/(I6-I7)</f>
+        <v>23378240723.296398</v>
+      </c>
+      <c r="J3" s="54" t="s">
         <v>205</v>
       </c>
-      <c r="K3" s="45"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="117" t="s">
+      <c r="K3" s="55">
+        <f>Financials!O172*-1/Model!A3</f>
+        <v>1.1210076188702079E-2</v>
+      </c>
+      <c r="L3" s="56" t="s">
+        <v>250</v>
+      </c>
+      <c r="M3" s="39"/>
+      <c r="N3" s="119" t="s">
         <v>206</v>
       </c>
-      <c r="O3" s="118"/>
-      <c r="P3" s="47"/>
-    </row>
-    <row r="4" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="48">
+      <c r="O3" s="120"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+    </row>
+    <row r="4" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="57">
         <f>Financials!O56-Financials!O96-Financials!O105</f>
         <v>-1209300000</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="58" t="s">
         <v>207</v>
       </c>
-      <c r="C4" s="50">
+      <c r="C4" s="59">
         <f>Financials!O17*0.01</f>
         <v>0.25459999999999999</v>
       </c>
-      <c r="D4" s="49" t="s">
+      <c r="D4" s="58" t="s">
         <v>208</v>
       </c>
-      <c r="E4" s="50">
+      <c r="E4" s="59">
         <f>SUM(C13:E13)/3</f>
         <v>-5.9013398832903206E-2</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="60" t="s">
         <v>209</v>
       </c>
-      <c r="G4" s="52">
+      <c r="G4" s="61">
         <f>A5*(1+(5*G3))</f>
-        <v>98735533.185798138</v>
-      </c>
-      <c r="H4" s="53" t="s">
+        <v>98772120.304520965</v>
+      </c>
+      <c r="H4" s="60" t="s">
         <v>210</v>
       </c>
-      <c r="I4" s="54">
-        <f>NPV(I6,F14,G14,H14,I14,(J14+I3))</f>
-        <v>20153542385.704273</v>
-      </c>
-      <c r="J4" s="51" t="s">
+      <c r="I4" s="62">
+        <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
+        <v>20608951013.832897</v>
+      </c>
+      <c r="J4" s="60" t="s">
         <v>211</v>
       </c>
-      <c r="K4" s="43" cm="1">
+      <c r="K4" s="63" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>7.5729999999999999E-3</v>
-      </c>
-      <c r="L4" s="42" t="s">
+        <v>-1.0592999999999998E-2</v>
+      </c>
+      <c r="L4" s="64" t="s">
+        <v>251</v>
+      </c>
+      <c r="M4" s="39"/>
+      <c r="N4" s="121" t="s">
         <v>212</v>
       </c>
-      <c r="M4" s="47"/>
-      <c r="N4" s="119" t="s">
+      <c r="O4" s="122"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
+    </row>
+    <row r="5" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="57" cm="1">
+        <f t="array" ref="A5">_FV(A1,"Shares outstanding",TRUE)</f>
+        <v>105556000</v>
+      </c>
+      <c r="B5" s="58" t="s">
         <v>213</v>
       </c>
-      <c r="O4" s="120"/>
-      <c r="P4" s="47"/>
-    </row>
-    <row r="5" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="52" cm="1">
-        <f t="array" ref="A5">_FV(A1,"Shares outstanding",TRUE)</f>
-        <v>105516900</v>
-      </c>
-      <c r="B5" s="49" t="s">
-        <v>214</v>
-      </c>
-      <c r="C5" s="55">
+      <c r="C5" s="59">
         <f>Financials!O34*0.01</f>
         <v>0.16719999999999999</v>
       </c>
-      <c r="D5" s="49" t="s">
+      <c r="D5" s="65" t="s">
+        <v>214</v>
+      </c>
+      <c r="E5" s="59">
+        <f>SUM(C16:E16)/3</f>
+        <v>0.26015020986222553</v>
+      </c>
+      <c r="F5" s="60" t="s">
         <v>215</v>
       </c>
-      <c r="E5" s="50">
-        <f>SUM(C15:E15)/3</f>
-        <v>0.26015020986222553</v>
-      </c>
-      <c r="F5" s="51" t="s">
-        <v>216</v>
-      </c>
-      <c r="G5" s="52">
+      <c r="G5" s="61">
         <f>Financials!O56</f>
         <v>517300000</v>
       </c>
-      <c r="H5" s="53" t="s">
+      <c r="H5" s="60" t="s">
+        <v>216</v>
+      </c>
+      <c r="I5" s="62">
+        <f>I4+G5-G6</f>
+        <v>19399651013.832897</v>
+      </c>
+      <c r="J5" s="60" t="s">
         <v>217</v>
       </c>
-      <c r="I5" s="54">
-        <f>I4+G5-G6</f>
-        <v>18944242385.704273</v>
-      </c>
-      <c r="J5" s="51" t="s">
+      <c r="K5" s="66" cm="1">
+        <f t="array" ref="K5">_FV(A1,"Price")</f>
+        <v>180.26</v>
+      </c>
+      <c r="L5" s="67" t="s">
         <v>218</v>
       </c>
-      <c r="K5" s="56" cm="1">
-        <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>163.65</v>
-      </c>
-      <c r="L5" s="49" t="s">
+      <c r="M5" s="39"/>
+      <c r="N5" s="102" t="s">
         <v>219</v>
       </c>
-      <c r="M5" s="47"/>
-      <c r="N5" s="57" t="s">
-        <v>220</v>
-      </c>
-      <c r="O5" s="58">
+      <c r="O5" s="103">
         <f>Financials!O21</f>
         <v>63600000</v>
       </c>
-      <c r="P5" s="47"/>
-    </row>
-    <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="59">
+      <c r="P5" s="39"/>
+      <c r="Q5" s="39"/>
+      <c r="R5" s="39"/>
+    </row>
+    <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="68">
         <f>O20/F10</f>
-        <v>4.0957876387571162</v>
-      </c>
-      <c r="B6" s="49" t="s">
-        <v>221</v>
-      </c>
-      <c r="C6" s="50">
+        <v>4.5131699620493357</v>
+      </c>
+      <c r="B6" s="58" t="s">
+        <v>220</v>
+      </c>
+      <c r="C6" s="59">
         <f>Financials!O190</f>
         <v>0.1384033426634482</v>
       </c>
-      <c r="D6" s="60" t="s">
+      <c r="D6" s="65" t="s">
         <v>200</v>
       </c>
-      <c r="E6" s="50">
+      <c r="E6" s="59">
         <f>Financials!O33/Financials!O126</f>
         <v>0.17768256740530511</v>
       </c>
-      <c r="F6" s="49" t="s">
-        <v>222</v>
-      </c>
-      <c r="G6" s="54">
+      <c r="F6" s="58" t="s">
+        <v>221</v>
+      </c>
+      <c r="G6" s="61">
         <f>Financials!O96+Financials!O105</f>
         <v>1726600000</v>
       </c>
-      <c r="H6" s="53" t="s">
+      <c r="H6" s="60" t="s">
+        <v>222</v>
+      </c>
+      <c r="I6" s="63">
+        <f>N25</f>
+        <v>6.3845951273614407E-2</v>
+      </c>
+      <c r="J6" s="60" t="s">
         <v>223</v>
       </c>
-      <c r="I6" s="61">
-        <f>N25</f>
-        <v>6.4721484018785427E-2</v>
-      </c>
-      <c r="J6" s="53" t="s">
+      <c r="K6" s="69">
+        <f>I5/G4</f>
+        <v>196.40816613050822</v>
+      </c>
+      <c r="L6" s="70" t="s">
         <v>224</v>
       </c>
-      <c r="K6" s="62">
-        <f>I5/G4</f>
-        <v>191.86853784498692</v>
-      </c>
-      <c r="L6" s="63" t="s">
+      <c r="M6" s="39"/>
+      <c r="N6" s="102" t="s">
         <v>225</v>
       </c>
-      <c r="M6" s="47"/>
-      <c r="N6" s="64" t="s">
-        <v>226</v>
-      </c>
-      <c r="O6" s="65">
+      <c r="O6" s="103">
         <f>Financials!O96</f>
         <v>164900000</v>
       </c>
-      <c r="P6" s="47"/>
-    </row>
-    <row r="7" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="66">
+      <c r="P6" s="39"/>
+      <c r="Q6" s="39"/>
+      <c r="R6" s="39"/>
+    </row>
+    <row r="7" spans="1:18" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="71">
         <f>O20/F12</f>
-        <v>22.138257288461539</v>
-      </c>
-      <c r="B7" s="67" t="s">
+        <v>24.394262256410258</v>
+      </c>
+      <c r="B7" s="72" t="s">
+        <v>226</v>
+      </c>
+      <c r="C7" s="73">
+        <f>F15/A3</f>
+        <v>3.9101250278454507E-2</v>
+      </c>
+      <c r="D7" s="72" t="s">
         <v>227</v>
       </c>
-      <c r="C7" s="68">
-        <f>F14/A3</f>
-        <v>4.3085873536364512E-2</v>
-      </c>
-      <c r="D7" s="69" t="s">
-        <v>228</v>
-      </c>
-      <c r="E7" s="70">
+      <c r="E7" s="74">
         <f>(Financials!O16*(1-0.25))/(Financials!O126+Financials!O105+Financials!O96)</f>
         <v>0.13793823038397329</v>
       </c>
-      <c r="F7" s="67" t="s">
+      <c r="F7" s="72" t="s">
         <v>196</v>
       </c>
-      <c r="G7" s="71">
+      <c r="G7" s="75">
         <f>(Financials!O96+Financials!O105)/Financials!O126</f>
         <v>0.47118218535094419</v>
       </c>
-      <c r="H7" s="72" t="s">
+      <c r="H7" s="76" t="s">
+        <v>228</v>
+      </c>
+      <c r="I7" s="77">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J7" s="78" t="s">
         <v>229</v>
       </c>
-      <c r="I7" s="73">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="J7" s="74" t="s">
+      <c r="K7" s="79">
+        <f>K6/K5-1</f>
+        <v>8.9582636916166747E-2</v>
+      </c>
+      <c r="L7" s="80" t="s">
         <v>230</v>
       </c>
-      <c r="K7" s="75">
-        <f>K6/K5-1</f>
-        <v>0.17243225080957481</v>
-      </c>
-      <c r="L7" s="76" t="s">
+      <c r="M7" s="39"/>
+      <c r="N7" s="102" t="s">
         <v>231</v>
       </c>
-      <c r="M7" s="47"/>
-      <c r="N7" s="64" t="s">
-        <v>232</v>
-      </c>
-      <c r="O7" s="65">
+      <c r="O7" s="103">
         <f>Financials!O105</f>
         <v>1561700000</v>
       </c>
-      <c r="P7" s="47"/>
-    </row>
-    <row r="8" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="77"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="78" t="s">
-        <v>213</v>
-      </c>
-      <c r="O8" s="79">
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="39"/>
+    </row>
+    <row r="8" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="40"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="104" t="s">
+        <v>212</v>
+      </c>
+      <c r="O8" s="105">
         <f>O5/(O6+O7)</f>
         <v>3.6835399050156377E-2</v>
       </c>
-      <c r="P8" s="47"/>
-    </row>
-    <row r="9" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="80"/>
-      <c r="B9" s="81">
+      <c r="P8" s="39"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="39"/>
+    </row>
+    <row r="9" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="81"/>
+      <c r="B9" s="82">
         <v>2019</v>
       </c>
-      <c r="C9" s="81">
+      <c r="C9" s="82">
         <v>2020</v>
       </c>
-      <c r="D9" s="81">
+      <c r="D9" s="82">
         <v>2021</v>
       </c>
-      <c r="E9" s="81">
+      <c r="E9" s="83">
         <v>2022</v>
       </c>
-      <c r="F9" s="82">
+      <c r="F9" s="84">
         <v>2023</v>
       </c>
-      <c r="G9" s="83">
+      <c r="G9" s="85">
         <v>2024</v>
       </c>
-      <c r="H9" s="83">
+      <c r="H9" s="85">
         <v>2025</v>
       </c>
-      <c r="I9" s="83">
+      <c r="I9" s="85">
         <v>2026</v>
       </c>
-      <c r="J9" s="83">
+      <c r="J9" s="86">
         <v>2027</v>
       </c>
-      <c r="K9" s="84"/>
-      <c r="L9" s="85"/>
-      <c r="M9" s="85"/>
-      <c r="N9" s="64" t="s">
-        <v>233</v>
-      </c>
-      <c r="O9" s="65">
+      <c r="K9" s="87"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="102" t="s">
+        <v>232</v>
+      </c>
+      <c r="O9" s="103">
         <f>Financials!O25</f>
         <v>303700000</v>
       </c>
-      <c r="P9" s="47"/>
-    </row>
-    <row r="10" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="86" t="s">
-        <v>234</v>
-      </c>
-      <c r="B10" s="87">
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="39"/>
+    </row>
+    <row r="10" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="88" t="s">
+        <v>233</v>
+      </c>
+      <c r="B10" s="89">
         <v>2496100000</v>
       </c>
-      <c r="C10" s="87">
+      <c r="C10" s="89">
         <v>3427100000</v>
       </c>
-      <c r="D10" s="87">
+      <c r="D10" s="89">
         <v>3494800000</v>
       </c>
-      <c r="E10" s="87">
+      <c r="E10" s="90">
         <v>3958500000</v>
       </c>
-      <c r="F10" s="88">
+      <c r="F10" s="89">
         <f>4216000000</f>
         <v>4216000000</v>
       </c>
-      <c r="G10" s="87">
+      <c r="G10" s="89">
         <v>4450000000</v>
       </c>
-      <c r="H10" s="87">
+      <c r="H10" s="89">
         <v>4700000000</v>
       </c>
-      <c r="I10" s="87">
+      <c r="I10" s="89">
         <v>4850000000</v>
       </c>
-      <c r="J10" s="87">
+      <c r="J10" s="90">
         <v>5000000000</v>
       </c>
-      <c r="K10" s="89" t="s">
+      <c r="K10" s="91" t="s">
+        <v>234</v>
+      </c>
+      <c r="L10" s="41"/>
+      <c r="N10" s="102" t="s">
         <v>235</v>
       </c>
-      <c r="N10" s="64" t="s">
-        <v>236</v>
-      </c>
-      <c r="O10" s="65">
+      <c r="O10" s="103">
         <f>Financials!O24</f>
         <v>954800000</v>
       </c>
-      <c r="P10" s="47"/>
-    </row>
-    <row r="11" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="90"/>
-      <c r="B11" s="91"/>
-      <c r="C11" s="91">
+      <c r="P10" s="39"/>
+      <c r="Q10" s="39"/>
+      <c r="R10" s="39"/>
+    </row>
+    <row r="11" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="92"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42">
         <f t="shared" ref="C11:J11" si="0">(C10/B10)-1</f>
         <v>0.37298185168863429</v>
       </c>
-      <c r="D11" s="91">
+      <c r="D11" s="42">
         <f t="shared" si="0"/>
         <v>1.9754311225234078E-2</v>
       </c>
-      <c r="E11" s="91">
+      <c r="E11" s="42">
         <f t="shared" si="0"/>
         <v>0.13268284308114908</v>
       </c>
-      <c r="F11" s="92">
+      <c r="F11" s="43">
         <f t="shared" si="0"/>
         <v>6.5049892636099615E-2</v>
       </c>
-      <c r="G11" s="91">
+      <c r="G11" s="42">
         <f t="shared" si="0"/>
         <v>5.5502846299810171E-2</v>
       </c>
-      <c r="H11" s="91">
+      <c r="H11" s="42">
         <f t="shared" si="0"/>
         <v>5.6179775280898792E-2</v>
       </c>
-      <c r="I11" s="91">
+      <c r="I11" s="42">
         <f t="shared" si="0"/>
         <v>3.1914893617021267E-2</v>
       </c>
-      <c r="J11" s="91">
+      <c r="J11" s="93">
         <f t="shared" si="0"/>
         <v>3.0927835051546282E-2</v>
       </c>
@@ -16122,94 +16373,98 @@
         <f>SUM(F11:J11)/5</f>
         <v>4.7915048577075223E-2</v>
       </c>
-      <c r="L11" s="85"/>
-      <c r="M11" s="85"/>
-      <c r="N11" s="64" t="s">
-        <v>237</v>
-      </c>
-      <c r="O11" s="94">
+      <c r="L11" s="41"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="102" t="s">
+        <v>236</v>
+      </c>
+      <c r="O11" s="106">
         <f>O9/O10</f>
         <v>0.31807708420611647</v>
       </c>
-      <c r="P11" s="47"/>
-    </row>
-    <row r="12" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="86" t="s">
+      <c r="P11" s="39"/>
+      <c r="Q11" s="39"/>
+      <c r="R11" s="39"/>
+    </row>
+    <row r="12" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="88" t="s">
         <v>142</v>
       </c>
-      <c r="B12" s="87">
+      <c r="B12" s="89">
         <v>374900000</v>
       </c>
-      <c r="C12" s="87">
+      <c r="C12" s="89">
         <v>468200000</v>
       </c>
-      <c r="D12" s="87">
+      <c r="D12" s="89">
         <v>529000000</v>
       </c>
-      <c r="E12" s="87">
+      <c r="E12" s="89">
         <v>235000000</v>
       </c>
-      <c r="F12" s="88">
+      <c r="F12" s="94">
         <v>780000000</v>
       </c>
-      <c r="G12" s="87">
+      <c r="G12" s="89">
         <v>815000000</v>
       </c>
-      <c r="H12" s="87">
+      <c r="H12" s="89">
         <v>856000000</v>
       </c>
-      <c r="I12" s="87">
+      <c r="I12" s="89">
         <v>856000000</v>
       </c>
-      <c r="J12" s="87">
+      <c r="J12" s="90">
         <v>889000000</v>
       </c>
-      <c r="K12" s="89" t="s">
+      <c r="K12" s="95" t="s">
+        <v>237</v>
+      </c>
+      <c r="L12" s="41"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="102" t="s">
         <v>238</v>
       </c>
-      <c r="L12" s="85"/>
-      <c r="M12" s="85"/>
-      <c r="N12" s="95" t="s">
-        <v>239</v>
-      </c>
-      <c r="O12" s="96">
+      <c r="O12" s="106">
         <f>O8*(1-O11)</f>
         <v>2.5118902724713885E-2</v>
       </c>
-      <c r="P12" s="47"/>
-    </row>
-    <row r="13" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="90"/>
-      <c r="B13" s="91"/>
-      <c r="C13" s="91">
+      <c r="P12" s="39"/>
+      <c r="Q12" s="39"/>
+      <c r="R12" s="39"/>
+    </row>
+    <row r="13" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="92"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42">
         <f t="shared" ref="C13:J13" si="1">(C12/B12)-1</f>
         <v>0.24886636436383025</v>
       </c>
-      <c r="D13" s="91">
+      <c r="D13" s="42">
         <f t="shared" si="1"/>
         <v>0.12985903460059811</v>
       </c>
-      <c r="E13" s="91">
+      <c r="E13" s="42">
         <f t="shared" si="1"/>
         <v>-0.55576559546313797</v>
       </c>
-      <c r="F13" s="92">
+      <c r="F13" s="43">
         <f t="shared" si="1"/>
         <v>2.3191489361702127</v>
       </c>
-      <c r="G13" s="91">
+      <c r="G13" s="42">
         <f t="shared" si="1"/>
         <v>4.4871794871794934E-2</v>
       </c>
-      <c r="H13" s="91">
+      <c r="H13" s="42">
         <f t="shared" si="1"/>
         <v>5.03067484662576E-2</v>
       </c>
-      <c r="I13" s="91">
+      <c r="I13" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J13" s="91">
+      <c r="J13" s="93">
         <f t="shared" si="1"/>
         <v>3.8551401869158841E-2</v>
       </c>
@@ -16217,1195 +16472,1352 @@
         <f>SUM(F13:J13)/5</f>
         <v>0.49057577627548482</v>
       </c>
-      <c r="L13" s="85"/>
-      <c r="M13" s="85"/>
-      <c r="N13" s="119" t="s">
+      <c r="L13" s="41"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="121" t="s">
+        <v>239</v>
+      </c>
+      <c r="O13" s="122"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="39"/>
+    </row>
+    <row r="14" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="44" t="s">
+        <v>249</v>
+      </c>
+      <c r="B14" s="45">
+        <f>B12/B10</f>
+        <v>0.15019430311285606</v>
+      </c>
+      <c r="C14" s="45">
+        <f t="shared" ref="C14:J14" si="2">C12/C10</f>
+        <v>0.13661696478071839</v>
+      </c>
+      <c r="D14" s="45">
+        <f t="shared" si="2"/>
+        <v>0.15136774636602954</v>
+      </c>
+      <c r="E14" s="45">
+        <f t="shared" si="2"/>
+        <v>5.9365921434886955E-2</v>
+      </c>
+      <c r="F14" s="46">
+        <f t="shared" si="2"/>
+        <v>0.18500948766603414</v>
+      </c>
+      <c r="G14" s="45">
+        <f t="shared" si="2"/>
+        <v>0.18314606741573033</v>
+      </c>
+      <c r="H14" s="45">
+        <f t="shared" si="2"/>
+        <v>0.18212765957446808</v>
+      </c>
+      <c r="I14" s="45">
+        <f t="shared" si="2"/>
+        <v>0.17649484536082474</v>
+      </c>
+      <c r="J14" s="47">
+        <f t="shared" si="2"/>
+        <v>0.17780000000000001</v>
+      </c>
+      <c r="K14" s="47"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="102" t="s">
+        <v>241</v>
+      </c>
+      <c r="O14" s="106">
+        <f>'[1]US Treasury Bonds'!$C$8</f>
+        <v>4.2709999999999998E-2</v>
+      </c>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="39"/>
+      <c r="R14" s="39"/>
+    </row>
+    <row r="15" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="88" t="s">
+        <v>185</v>
+      </c>
+      <c r="B15" s="89">
+        <v>624249103</v>
+      </c>
+      <c r="C15" s="89">
+        <v>1438057056</v>
+      </c>
+      <c r="D15" s="89">
+        <v>578963074</v>
+      </c>
+      <c r="E15" s="89">
+        <v>621916771</v>
+      </c>
+      <c r="F15" s="94">
+        <v>744000000</v>
+      </c>
+      <c r="G15" s="89">
+        <v>811000000</v>
+      </c>
+      <c r="H15" s="89">
+        <v>866000000</v>
+      </c>
+      <c r="I15" s="89">
+        <v>855000000</v>
+      </c>
+      <c r="J15" s="90">
+        <v>886000000</v>
+      </c>
+      <c r="K15" s="95" t="s">
         <v>240</v>
       </c>
-      <c r="O13" s="120"/>
-      <c r="P13" s="47"/>
-    </row>
-    <row r="14" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="86" t="s">
-        <v>185</v>
-      </c>
-      <c r="B14" s="87">
-        <v>624249103</v>
-      </c>
-      <c r="C14" s="87">
-        <v>1438057056</v>
-      </c>
-      <c r="D14" s="87">
-        <v>578963074</v>
-      </c>
-      <c r="E14" s="87">
-        <v>621916771</v>
-      </c>
-      <c r="F14" s="88">
-        <v>744000000</v>
-      </c>
-      <c r="G14" s="87">
-        <v>811000000</v>
-      </c>
-      <c r="H14" s="87">
-        <v>866000000</v>
-      </c>
-      <c r="I14" s="87">
-        <v>855000000</v>
-      </c>
-      <c r="J14" s="87">
-        <v>886000000</v>
-      </c>
-      <c r="K14" s="89" t="s">
-        <v>241</v>
-      </c>
-      <c r="L14" s="85"/>
-      <c r="M14" s="85"/>
-      <c r="N14" s="64" t="s">
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="102" t="s">
         <v>242</v>
       </c>
-      <c r="O14" s="94">
-        <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.8399999999999999E-2</v>
-      </c>
-      <c r="P14" s="47"/>
-    </row>
-    <row r="15" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="97"/>
-      <c r="B15" s="91"/>
-      <c r="C15" s="91">
-        <f t="shared" ref="C15:J15" si="2">(C14/B14)-1</f>
+      <c r="O15" s="107" cm="1">
+        <f t="array" ref="O15">_FV(A1,"Beta")</f>
+        <v>0.59699999999999998</v>
+      </c>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="39"/>
+      <c r="R15" s="39"/>
+    </row>
+    <row r="16" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="96"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42">
+        <f t="shared" ref="C16:J16" si="3">(C15/B15)-1</f>
         <v>1.3036589865952921</v>
       </c>
-      <c r="D15" s="91">
-        <f t="shared" si="2"/>
+      <c r="D16" s="42">
+        <f t="shared" si="3"/>
         <v>-0.59739909373943512</v>
       </c>
-      <c r="E15" s="91">
-        <f t="shared" si="2"/>
+      <c r="E16" s="42">
+        <f t="shared" si="3"/>
         <v>7.4190736730819662E-2</v>
       </c>
-      <c r="F15" s="92">
-        <f t="shared" si="2"/>
+      <c r="F16" s="43">
+        <f t="shared" si="3"/>
         <v>0.19630155463358623</v>
       </c>
-      <c r="G15" s="91">
-        <f t="shared" si="2"/>
+      <c r="G16" s="42">
+        <f t="shared" si="3"/>
         <v>9.0053763440860246E-2</v>
       </c>
-      <c r="H15" s="91">
-        <f t="shared" si="2"/>
+      <c r="H16" s="42">
+        <f t="shared" si="3"/>
         <v>6.7817509247842134E-2</v>
       </c>
-      <c r="I15" s="91">
-        <f t="shared" si="2"/>
+      <c r="I16" s="42">
+        <f t="shared" si="3"/>
         <v>-1.2702078521939941E-2</v>
       </c>
-      <c r="J15" s="91">
-        <f t="shared" si="2"/>
+      <c r="J16" s="93">
+        <f t="shared" si="3"/>
         <v>3.6257309941520433E-2</v>
       </c>
-      <c r="K15" s="93">
-        <f>SUM(F15:J15)/5</f>
+      <c r="K16" s="93">
+        <f>SUM(F16:J16)/5</f>
         <v>7.554561174837382E-2</v>
       </c>
-      <c r="L15" s="85"/>
-      <c r="M15" s="85"/>
-      <c r="N15" s="64" t="s">
+      <c r="L16" s="41"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="102" t="s">
         <v>243</v>
       </c>
-      <c r="O15" s="98" cm="1">
-        <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>0.56969999999999998</v>
-      </c>
-      <c r="P15" s="47"/>
-    </row>
-    <row r="16" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="86" t="s">
+      <c r="O16" s="106">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="39"/>
+      <c r="R16" s="39"/>
+    </row>
+    <row r="17" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="44" t="s">
+        <v>200</v>
+      </c>
+      <c r="B17" s="45">
+        <f>B15/B10</f>
+        <v>0.25008978125876369</v>
+      </c>
+      <c r="C17" s="45">
+        <f t="shared" ref="C17:J17" si="4">C15/C10</f>
+        <v>0.41961339208076798</v>
+      </c>
+      <c r="D17" s="45">
+        <f t="shared" si="4"/>
+        <v>0.16566415073823967</v>
+      </c>
+      <c r="E17" s="47">
+        <f t="shared" si="4"/>
+        <v>0.15710920070733864</v>
+      </c>
+      <c r="F17" s="45">
+        <f t="shared" si="4"/>
+        <v>0.17647058823529413</v>
+      </c>
+      <c r="G17" s="45">
+        <f t="shared" si="4"/>
+        <v>0.18224719101123596</v>
+      </c>
+      <c r="H17" s="45">
+        <f t="shared" si="4"/>
+        <v>0.18425531914893617</v>
+      </c>
+      <c r="I17" s="45">
+        <f t="shared" si="4"/>
+        <v>0.17628865979381445</v>
+      </c>
+      <c r="J17" s="47">
+        <f t="shared" si="4"/>
+        <v>0.1772</v>
+      </c>
+      <c r="K17" s="47"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="108" t="s">
+        <v>239</v>
+      </c>
+      <c r="O17" s="109">
+        <f>(O14)+((O15)*(O16-O14))</f>
+        <v>6.7360130000000004E-2</v>
+      </c>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="39"/>
+      <c r="R17" s="39"/>
+    </row>
+    <row r="18" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="97" t="s">
         <v>196</v>
       </c>
-      <c r="B16" s="99">
+      <c r="B18" s="98">
         <v>0.10124809846494261</v>
       </c>
-      <c r="C16" s="99">
+      <c r="C18" s="98">
         <v>0.11324681423296122</v>
       </c>
-      <c r="D16" s="99">
+      <c r="D18" s="98">
         <v>0.11542244286249531</v>
       </c>
-      <c r="E16" s="99">
+      <c r="E18" s="98">
         <v>0.13637896788217216</v>
       </c>
-      <c r="F16" s="100"/>
-      <c r="G16" s="101"/>
-      <c r="H16" s="101"/>
-      <c r="I16" s="101"/>
-      <c r="J16" s="101"/>
-      <c r="K16" s="102"/>
-      <c r="L16" s="85"/>
-      <c r="M16" s="85"/>
-      <c r="N16" s="64" t="s">
+      <c r="F18" s="99"/>
+      <c r="G18" s="98"/>
+      <c r="H18" s="98"/>
+      <c r="I18" s="98"/>
+      <c r="J18" s="100"/>
+      <c r="K18" s="101"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="121" t="s">
         <v>244</v>
       </c>
-      <c r="O16" s="94">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="P16" s="47"/>
-    </row>
-    <row r="17" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="85"/>
-      <c r="B17" s="103"/>
-      <c r="C17" s="103"/>
-      <c r="D17" s="103"/>
-      <c r="E17" s="103"/>
-      <c r="F17" s="85"/>
-      <c r="G17" s="85"/>
-      <c r="H17" s="85"/>
-      <c r="I17" s="85"/>
-      <c r="J17" s="85"/>
-      <c r="K17" s="85"/>
-      <c r="L17" s="85"/>
-      <c r="M17" s="85"/>
-      <c r="N17" s="104" t="s">
-        <v>240</v>
-      </c>
-      <c r="O17" s="105">
-        <f>(O14)+((O15)*(O16-O14))</f>
-        <v>6.8681320000000004E-2</v>
-      </c>
-      <c r="P17" s="47"/>
-    </row>
-    <row r="18" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="85"/>
-      <c r="B18" s="85"/>
-      <c r="C18" s="85"/>
-      <c r="D18" s="85"/>
-      <c r="E18" s="85"/>
-      <c r="F18" s="85"/>
-      <c r="G18" s="85"/>
-      <c r="H18" s="85"/>
-      <c r="I18" s="85"/>
-      <c r="J18" s="85"/>
-      <c r="K18" s="85"/>
-      <c r="L18" s="85"/>
-      <c r="M18" s="85"/>
-      <c r="N18" s="119" t="s">
-        <v>245</v>
-      </c>
-      <c r="O18" s="120"/>
-      <c r="P18" s="47"/>
-    </row>
-    <row r="19" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="110" t="str" cm="1">
-        <f t="array" ref="A19">_FV(A1,"Industry")</f>
-        <v>Investment Banking &amp; Investment Services</v>
-      </c>
-      <c r="B19" s="110"/>
-      <c r="C19" s="121" cm="1">
-        <f t="array" ref="C19">_FV(A1,"Year incorporated",TRUE)</f>
-        <v>2006</v>
-      </c>
-      <c r="D19" s="121"/>
-      <c r="E19" s="106"/>
-      <c r="F19" s="85"/>
-      <c r="G19" s="85"/>
-      <c r="H19" s="85"/>
-      <c r="I19" s="85"/>
-      <c r="J19" s="85"/>
-      <c r="K19" s="85"/>
-      <c r="L19" s="85"/>
-      <c r="M19" s="85"/>
-      <c r="N19" s="64" t="s">
-        <v>223</v>
-      </c>
-      <c r="O19" s="107">
+      <c r="O18" s="122"/>
+      <c r="P18" s="39"/>
+      <c r="Q18" s="39"/>
+      <c r="R18" s="39"/>
+    </row>
+    <row r="19" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="41"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="102" t="s">
+        <v>222</v>
+      </c>
+      <c r="O19" s="110">
         <f>O6+O7</f>
         <v>1726600000</v>
       </c>
-      <c r="P19" s="47"/>
-    </row>
-    <row r="20" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="110" t="str" cm="1">
-        <f t="array" ref="A20">_FV(A1,"Description")</f>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="39"/>
+      <c r="R19" s="39"/>
+    </row>
+    <row r="20" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="41"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="102" t="s">
+        <v>201</v>
+      </c>
+      <c r="O20" s="110" cm="1">
+        <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
+        <v>19027524560</v>
+      </c>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="39"/>
+      <c r="R20" s="39"/>
+    </row>
+    <row r="21" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="123" t="str" cm="1">
+        <f t="array" ref="A21">_FV(A1,"Industry")</f>
+        <v>Investment Banking &amp; Investment Services</v>
+      </c>
+      <c r="B21" s="123"/>
+      <c r="C21" s="123"/>
+      <c r="D21" s="124" cm="1">
+        <f t="array" ref="D21">_FV(A1,"Year incorporated",TRUE)</f>
+        <v>2006</v>
+      </c>
+      <c r="E21" s="124"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="41"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="102" t="s">
+        <v>245</v>
+      </c>
+      <c r="O21" s="110">
+        <f>O19+O20</f>
+        <v>20754124560</v>
+      </c>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="39"/>
+      <c r="R21" s="39"/>
+    </row>
+    <row r="22" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="123" t="str" cm="1">
+        <f t="array" ref="A22">_FV(A1,"Description")</f>
         <v>Cboe Global Markets, Inc. is a provider of market infrastructure and tradable products, delivering trading, and clearing and investment solutions to market participants. Its segments include Options, North American Equities, Europe and Asia Pacific, Futures, Global FX., and Digital. The Options segment includes options on market indices (index options), as well as on the stocks of individual corporations (equity options). The North American Equities segment includes listed United States equities transaction services. The Europe and Asia Pacific segment includes the pan-European listed equities and derivatives transaction services, exchange-traded products (ETPs), exchange-traded commodities, and international depository receipts. The Futures segment includes transaction services provided by its electronic futures exchange, Cboe Futures Exchange, LLC (CFE). The Global FX segment includes institutional foreign exchange (FX) trading services. The Digital segment includes Cboe Digital.</v>
       </c>
-      <c r="B20" s="110"/>
-      <c r="C20" s="110"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="110"/>
-      <c r="F20" s="85"/>
-      <c r="G20" s="85"/>
-      <c r="H20" s="85"/>
-      <c r="I20" s="85"/>
-      <c r="J20" s="85"/>
-      <c r="K20" s="85"/>
-      <c r="L20" s="85"/>
-      <c r="M20" s="85"/>
-      <c r="N20" s="64" t="s">
-        <v>201</v>
-      </c>
-      <c r="O20" s="107" cm="1">
-        <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>17267840685</v>
-      </c>
-      <c r="P20" s="47"/>
-    </row>
-    <row r="21" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="110"/>
-      <c r="B21" s="110"/>
-      <c r="C21" s="110"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="110"/>
-      <c r="F21" s="85"/>
-      <c r="G21" s="85"/>
-      <c r="H21" s="85"/>
-      <c r="I21" s="85"/>
-      <c r="J21" s="85"/>
-      <c r="K21" s="85"/>
-      <c r="M21" s="85"/>
-      <c r="N21" s="64" t="s">
+      <c r="B22" s="123"/>
+      <c r="C22" s="123"/>
+      <c r="D22" s="123"/>
+      <c r="E22" s="123"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="104" t="s">
         <v>246</v>
       </c>
-      <c r="O21" s="107">
-        <f>O19+O20</f>
-        <v>18994440685</v>
-      </c>
-      <c r="P21" s="47"/>
-    </row>
-    <row r="22" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="110"/>
-      <c r="B22" s="110"/>
-      <c r="C22" s="110"/>
-      <c r="D22" s="110"/>
-      <c r="E22" s="110"/>
-      <c r="F22" s="85"/>
-      <c r="G22" s="85"/>
-      <c r="H22" s="85"/>
-      <c r="I22" s="85"/>
-      <c r="J22" s="85"/>
-      <c r="K22" s="85"/>
-      <c r="L22" s="85"/>
-      <c r="M22" s="85"/>
-      <c r="N22" s="78" t="s">
+      <c r="O22" s="111">
+        <f>(O19/O21)</f>
+        <v>8.319310193057837E-2</v>
+      </c>
+      <c r="P22" s="39"/>
+      <c r="Q22" s="39"/>
+      <c r="R22" s="39"/>
+    </row>
+    <row r="23" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="123"/>
+      <c r="B23" s="123"/>
+      <c r="C23" s="123"/>
+      <c r="D23" s="123"/>
+      <c r="E23" s="123"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="108" t="s">
         <v>247</v>
       </c>
-      <c r="O22" s="108">
-        <f>(O19/O21)</f>
-        <v>9.0900281226153942E-2</v>
-      </c>
-      <c r="P22" s="47"/>
-    </row>
-    <row r="23" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="110"/>
-      <c r="B23" s="110"/>
-      <c r="C23" s="110"/>
-      <c r="D23" s="110"/>
-      <c r="E23" s="110"/>
-      <c r="F23" s="85"/>
-      <c r="G23" s="85"/>
-      <c r="H23" s="85"/>
-      <c r="I23" s="85"/>
-      <c r="J23" s="85"/>
-      <c r="K23" s="85"/>
-      <c r="L23" s="85"/>
-      <c r="M23" s="85"/>
-      <c r="N23" s="104" t="s">
+      <c r="O23" s="112">
+        <f>O20/O21</f>
+        <v>0.91680689806942162</v>
+      </c>
+      <c r="P23" s="39"/>
+      <c r="Q23" s="39"/>
+      <c r="R23" s="39"/>
+    </row>
+    <row r="24" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="123"/>
+      <c r="B24" s="123"/>
+      <c r="C24" s="123"/>
+      <c r="D24" s="123"/>
+      <c r="E24" s="123"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="41"/>
+      <c r="N24" s="113" t="s">
         <v>248</v>
       </c>
-      <c r="O23" s="109">
-        <f>O20/O21</f>
-        <v>0.9090997187738461</v>
-      </c>
-      <c r="P23" s="47"/>
-    </row>
-    <row r="24" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="110"/>
-      <c r="B24" s="110"/>
-      <c r="C24" s="110"/>
-      <c r="D24" s="110"/>
-      <c r="E24" s="110"/>
-      <c r="F24" s="85"/>
-      <c r="G24" s="85"/>
-      <c r="H24" s="85"/>
-      <c r="I24" s="85"/>
-      <c r="J24" s="85"/>
-      <c r="K24" s="85"/>
-      <c r="L24" s="85"/>
-      <c r="M24" s="85"/>
-      <c r="N24" s="111" t="s">
-        <v>249</v>
-      </c>
-      <c r="O24" s="112"/>
-      <c r="P24" s="47"/>
-    </row>
-    <row r="25" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="110"/>
-      <c r="B25" s="110"/>
-      <c r="C25" s="110"/>
-      <c r="D25" s="110"/>
-      <c r="E25" s="110"/>
-      <c r="F25" s="85"/>
-      <c r="G25" s="85"/>
-      <c r="H25" s="85"/>
-      <c r="I25" s="85"/>
-      <c r="J25" s="85"/>
-      <c r="K25" s="85"/>
-      <c r="L25" s="85"/>
-      <c r="M25" s="85"/>
-      <c r="N25" s="113">
+      <c r="O24" s="114"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="39"/>
+      <c r="R24" s="39"/>
+    </row>
+    <row r="25" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="123"/>
+      <c r="B25" s="123"/>
+      <c r="C25" s="123"/>
+      <c r="D25" s="123"/>
+      <c r="E25" s="123"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="115">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>6.4721484018785427E-2</v>
-      </c>
-      <c r="O25" s="114"/>
-      <c r="P25" s="47"/>
-    </row>
-    <row r="26" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="110"/>
-      <c r="B26" s="110"/>
-      <c r="C26" s="110"/>
-      <c r="D26" s="110"/>
-      <c r="E26" s="110"/>
-      <c r="F26" s="85"/>
-      <c r="G26" s="85"/>
-      <c r="H26" s="85"/>
-      <c r="I26" s="85"/>
-      <c r="J26" s="85"/>
-      <c r="K26" s="85"/>
-      <c r="L26" s="85"/>
-      <c r="M26" s="85"/>
-      <c r="N26" s="85"/>
-      <c r="O26" s="47"/>
-      <c r="P26" s="47"/>
-    </row>
-    <row r="27" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="110"/>
-      <c r="B27" s="110"/>
-      <c r="C27" s="110"/>
-      <c r="D27" s="110"/>
-      <c r="E27" s="110"/>
-      <c r="F27" s="85"/>
-      <c r="G27" s="85"/>
-      <c r="H27" s="85"/>
-      <c r="I27" s="85"/>
-      <c r="J27" s="85"/>
-      <c r="K27" s="85"/>
-      <c r="L27" s="85"/>
-      <c r="M27" s="85"/>
-      <c r="N27" s="85"/>
-      <c r="O27" s="47"/>
-      <c r="P27" s="47"/>
-    </row>
-    <row r="28" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="85"/>
-      <c r="B28" s="85"/>
-      <c r="C28" s="85"/>
-      <c r="D28" s="85"/>
-      <c r="E28" s="85"/>
-      <c r="F28" s="85"/>
-      <c r="G28" s="85"/>
-      <c r="H28" s="85"/>
-      <c r="I28" s="85"/>
-      <c r="J28" s="85"/>
-      <c r="K28" s="85"/>
-      <c r="L28" s="85"/>
-      <c r="M28" s="85"/>
-      <c r="N28" s="85"/>
-      <c r="O28" s="47"/>
-      <c r="P28" s="47"/>
-    </row>
-    <row r="29" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="85"/>
-      <c r="B29" s="85"/>
-      <c r="C29" s="85"/>
-      <c r="D29" s="85"/>
-      <c r="E29" s="85"/>
-      <c r="F29" s="85"/>
-      <c r="G29" s="85"/>
-      <c r="H29" s="85"/>
-      <c r="I29" s="85"/>
-      <c r="J29" s="85"/>
-      <c r="K29" s="85"/>
-      <c r="L29" s="85"/>
-      <c r="M29" s="85"/>
-      <c r="N29" s="85"/>
-      <c r="O29" s="47"/>
-      <c r="P29" s="47"/>
-    </row>
-    <row r="30" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="85"/>
-      <c r="B30" s="85"/>
-      <c r="C30" s="85"/>
-      <c r="D30" s="85"/>
-      <c r="E30" s="85"/>
-      <c r="F30" s="85"/>
-      <c r="G30" s="85"/>
-      <c r="H30" s="85"/>
-      <c r="I30" s="85"/>
-      <c r="J30" s="85"/>
-      <c r="K30" s="85"/>
-      <c r="L30" s="85"/>
-      <c r="M30" s="85"/>
-      <c r="N30" s="85"/>
-      <c r="O30" s="47"/>
-      <c r="P30" s="47"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="47"/>
-      <c r="B31" s="47"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="47"/>
-      <c r="I31" s="47"/>
-      <c r="J31" s="47"/>
-      <c r="K31" s="47"/>
-      <c r="L31" s="47"/>
-      <c r="M31" s="47"/>
-      <c r="N31" s="47"/>
-      <c r="O31" s="47"/>
-      <c r="P31" s="47"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="47"/>
-      <c r="B32" s="47"/>
-      <c r="C32" s="47"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="47"/>
-      <c r="H32" s="47"/>
-      <c r="I32" s="47"/>
-      <c r="J32" s="47"/>
-      <c r="K32" s="47"/>
-      <c r="L32" s="47"/>
-      <c r="M32" s="47"/>
-      <c r="N32" s="47"/>
-      <c r="O32" s="47"/>
-      <c r="P32" s="47"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="85"/>
-      <c r="B33" s="85"/>
-      <c r="C33" s="85"/>
-      <c r="D33" s="85"/>
-      <c r="E33" s="85"/>
-      <c r="F33" s="85"/>
-      <c r="G33" s="85"/>
-      <c r="H33" s="85"/>
-      <c r="I33" s="85"/>
-      <c r="J33" s="85"/>
-      <c r="K33" s="85"/>
-      <c r="L33" s="85"/>
-      <c r="M33" s="85"/>
-      <c r="N33" s="85"/>
-      <c r="O33" s="85"/>
-      <c r="P33" s="85"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" s="85"/>
-      <c r="B34" s="85"/>
-      <c r="C34" s="85"/>
-      <c r="D34" s="85"/>
-      <c r="E34" s="85"/>
-      <c r="F34" s="85"/>
-      <c r="G34" s="85"/>
-      <c r="H34" s="85"/>
-      <c r="I34" s="85"/>
-      <c r="J34" s="85"/>
-      <c r="K34" s="85"/>
-      <c r="L34" s="85"/>
-      <c r="M34" s="85"/>
-      <c r="N34" s="85"/>
-      <c r="O34" s="85"/>
-      <c r="P34" s="85"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A35" s="85"/>
-      <c r="B35" s="85"/>
-      <c r="C35" s="85"/>
-      <c r="D35" s="85"/>
-      <c r="E35" s="85"/>
-      <c r="F35" s="85"/>
-      <c r="G35" s="85"/>
-      <c r="H35" s="85"/>
-      <c r="I35" s="85"/>
-      <c r="J35" s="85"/>
-      <c r="K35" s="85"/>
-      <c r="L35" s="85"/>
-      <c r="M35" s="85"/>
-      <c r="N35" s="85"/>
-      <c r="O35" s="85"/>
-      <c r="P35" s="85"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A36" s="85"/>
-      <c r="B36" s="85"/>
-      <c r="C36" s="85"/>
-      <c r="D36" s="85"/>
-      <c r="E36" s="85"/>
-      <c r="F36" s="85"/>
-      <c r="G36" s="85"/>
-      <c r="H36" s="85"/>
-      <c r="I36" s="85"/>
-      <c r="J36" s="85"/>
-      <c r="K36" s="85"/>
-      <c r="L36" s="85"/>
-      <c r="M36" s="85"/>
-      <c r="N36" s="85"/>
-      <c r="O36" s="85"/>
-      <c r="P36" s="85"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37" s="85"/>
-      <c r="B37" s="85"/>
-      <c r="C37" s="85"/>
-      <c r="D37" s="85"/>
-      <c r="E37" s="85"/>
-      <c r="F37" s="85"/>
-      <c r="G37" s="85"/>
-      <c r="H37" s="85"/>
-      <c r="I37" s="85"/>
-      <c r="J37" s="85"/>
-      <c r="K37" s="85"/>
-      <c r="L37" s="85"/>
-      <c r="M37" s="85"/>
-      <c r="N37" s="85"/>
-      <c r="O37" s="85"/>
-      <c r="P37" s="85"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="85"/>
-      <c r="B38" s="85"/>
-      <c r="C38" s="85"/>
-      <c r="D38" s="85"/>
-      <c r="E38" s="85"/>
-      <c r="F38" s="85"/>
-      <c r="G38" s="85"/>
-      <c r="H38" s="85"/>
-      <c r="I38" s="85"/>
-      <c r="J38" s="85"/>
-      <c r="K38" s="85"/>
-      <c r="L38" s="85"/>
-      <c r="M38" s="85"/>
-      <c r="N38" s="85"/>
-      <c r="O38" s="85"/>
-      <c r="P38" s="85"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A39" s="85"/>
-      <c r="B39" s="85"/>
-      <c r="C39" s="85"/>
-      <c r="D39" s="85"/>
-      <c r="E39" s="85"/>
-      <c r="F39" s="85"/>
-      <c r="G39" s="85"/>
-      <c r="H39" s="85"/>
-      <c r="I39" s="85"/>
-      <c r="J39" s="85"/>
-      <c r="K39" s="85"/>
-      <c r="L39" s="85"/>
-      <c r="M39" s="85"/>
-      <c r="N39" s="85"/>
-      <c r="O39" s="85"/>
-      <c r="P39" s="85"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A40" s="85"/>
-      <c r="B40" s="85"/>
-      <c r="C40" s="85"/>
-      <c r="D40" s="85"/>
-      <c r="E40" s="85"/>
-      <c r="F40" s="85"/>
-      <c r="G40" s="85"/>
-      <c r="H40" s="85"/>
-      <c r="I40" s="85"/>
-      <c r="J40" s="85"/>
-      <c r="K40" s="85"/>
-      <c r="L40" s="85"/>
-      <c r="M40" s="85"/>
-      <c r="N40" s="85"/>
-      <c r="O40" s="85"/>
-      <c r="P40" s="85"/>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A41" s="85"/>
-      <c r="B41" s="85"/>
-      <c r="C41" s="85"/>
-      <c r="D41" s="85"/>
-      <c r="E41" s="85"/>
-      <c r="F41" s="85"/>
-      <c r="G41" s="85"/>
-      <c r="H41" s="85"/>
-      <c r="I41" s="85"/>
-      <c r="J41" s="85"/>
-      <c r="K41" s="85"/>
-      <c r="L41" s="85"/>
-      <c r="M41" s="85"/>
-      <c r="N41" s="85"/>
-      <c r="O41" s="85"/>
-      <c r="P41" s="85"/>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A42" s="85"/>
-      <c r="B42" s="85"/>
-      <c r="C42" s="85"/>
-      <c r="D42" s="85"/>
-      <c r="E42" s="85"/>
-      <c r="F42" s="85"/>
-      <c r="G42" s="85"/>
-      <c r="H42" s="85"/>
-      <c r="I42" s="85"/>
-      <c r="J42" s="85"/>
-      <c r="K42" s="85"/>
-      <c r="L42" s="85"/>
-      <c r="M42" s="85"/>
-      <c r="N42" s="85"/>
-      <c r="O42" s="85"/>
-      <c r="P42" s="85"/>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A43" s="85"/>
-      <c r="B43" s="85"/>
-      <c r="C43" s="85"/>
-      <c r="D43" s="85"/>
-      <c r="E43" s="85"/>
-      <c r="F43" s="85"/>
-      <c r="G43" s="85"/>
-      <c r="H43" s="85"/>
-      <c r="I43" s="85"/>
-      <c r="J43" s="85"/>
-      <c r="K43" s="85"/>
-      <c r="L43" s="85"/>
-      <c r="M43" s="85"/>
-      <c r="N43" s="85"/>
-      <c r="O43" s="85"/>
-      <c r="P43" s="85"/>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A44" s="85"/>
-      <c r="B44" s="85"/>
-      <c r="C44" s="85"/>
-      <c r="D44" s="85"/>
-      <c r="E44" s="85"/>
-      <c r="F44" s="85"/>
-      <c r="G44" s="85"/>
-      <c r="H44" s="85"/>
-      <c r="I44" s="85"/>
-      <c r="J44" s="85"/>
-      <c r="K44" s="85"/>
-      <c r="L44" s="85"/>
-      <c r="M44" s="85"/>
-      <c r="N44" s="85"/>
-      <c r="O44" s="85"/>
-      <c r="P44" s="85"/>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A45" s="85"/>
-      <c r="B45" s="85"/>
-      <c r="C45" s="85"/>
-      <c r="D45" s="85"/>
-      <c r="E45" s="85"/>
-      <c r="F45" s="85"/>
-      <c r="G45" s="85"/>
-      <c r="H45" s="85"/>
-      <c r="I45" s="85"/>
-      <c r="J45" s="85"/>
-      <c r="K45" s="85"/>
-      <c r="L45" s="85"/>
-      <c r="M45" s="85"/>
-      <c r="N45" s="85"/>
-      <c r="O45" s="85"/>
-      <c r="P45" s="85"/>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A46" s="85"/>
-      <c r="B46" s="85"/>
-      <c r="C46" s="85"/>
-      <c r="D46" s="85"/>
-      <c r="E46" s="85"/>
-      <c r="F46" s="85"/>
-      <c r="G46" s="85"/>
-      <c r="H46" s="85"/>
-      <c r="I46" s="85"/>
-      <c r="J46" s="85"/>
-      <c r="K46" s="85"/>
-      <c r="L46" s="85"/>
-      <c r="M46" s="85"/>
-      <c r="N46" s="85"/>
-      <c r="O46" s="85"/>
-      <c r="P46" s="85"/>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A47" s="85"/>
-      <c r="B47" s="85"/>
-      <c r="C47" s="85"/>
-      <c r="D47" s="85"/>
-      <c r="E47" s="85"/>
-      <c r="F47" s="85"/>
-      <c r="G47" s="85"/>
-      <c r="H47" s="85"/>
-      <c r="I47" s="85"/>
-      <c r="J47" s="85"/>
-      <c r="K47" s="85"/>
-      <c r="L47" s="85"/>
-      <c r="M47" s="85"/>
-      <c r="N47" s="85"/>
-      <c r="O47" s="85"/>
-      <c r="P47" s="85"/>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A48" s="85"/>
-      <c r="B48" s="85"/>
-      <c r="C48" s="85"/>
-      <c r="D48" s="85"/>
-      <c r="E48" s="85"/>
-      <c r="F48" s="85"/>
-      <c r="G48" s="85"/>
-      <c r="H48" s="85"/>
-      <c r="I48" s="85"/>
-      <c r="J48" s="85"/>
-      <c r="K48" s="85"/>
-      <c r="L48" s="85"/>
-      <c r="M48" s="85"/>
-      <c r="N48" s="85"/>
-      <c r="O48" s="85"/>
-      <c r="P48" s="85"/>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A49" s="85"/>
-      <c r="B49" s="85"/>
-      <c r="C49" s="85"/>
-      <c r="D49" s="85"/>
-      <c r="E49" s="85"/>
-      <c r="F49" s="85"/>
-      <c r="G49" s="85"/>
-      <c r="H49" s="85"/>
-      <c r="I49" s="85"/>
-      <c r="J49" s="85"/>
-      <c r="K49" s="85"/>
-      <c r="L49" s="85"/>
-      <c r="M49" s="85"/>
-      <c r="N49" s="85"/>
-      <c r="O49" s="85"/>
-      <c r="P49" s="85"/>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A50" s="85"/>
-      <c r="B50" s="85"/>
-      <c r="C50" s="85"/>
-      <c r="D50" s="85"/>
-      <c r="E50" s="85"/>
-      <c r="F50" s="85"/>
-      <c r="G50" s="85"/>
-      <c r="H50" s="85"/>
-      <c r="I50" s="85"/>
-      <c r="J50" s="85"/>
-      <c r="K50" s="85"/>
-      <c r="L50" s="85"/>
-      <c r="M50" s="85"/>
-      <c r="N50" s="85"/>
-      <c r="O50" s="85"/>
-      <c r="P50" s="85"/>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" s="85"/>
-      <c r="B51" s="85"/>
-      <c r="C51" s="85"/>
-      <c r="D51" s="85"/>
-      <c r="E51" s="85"/>
-      <c r="F51" s="85"/>
-      <c r="G51" s="85"/>
-      <c r="H51" s="85"/>
-      <c r="I51" s="85"/>
-      <c r="J51" s="85"/>
-      <c r="K51" s="85"/>
-      <c r="L51" s="85"/>
-      <c r="M51" s="85"/>
-      <c r="N51" s="85"/>
-      <c r="O51" s="85"/>
-      <c r="P51" s="85"/>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A52" s="85"/>
-      <c r="B52" s="85"/>
-      <c r="C52" s="85"/>
-      <c r="D52" s="85"/>
-      <c r="E52" s="85"/>
-      <c r="F52" s="85"/>
-      <c r="G52" s="85"/>
-      <c r="H52" s="85"/>
-      <c r="I52" s="85"/>
-      <c r="J52" s="85"/>
-      <c r="K52" s="85"/>
-      <c r="L52" s="85"/>
-      <c r="M52" s="85"/>
-      <c r="N52" s="85"/>
-      <c r="O52" s="85"/>
-      <c r="P52" s="85"/>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A53" s="85"/>
-      <c r="B53" s="85"/>
-      <c r="C53" s="85"/>
-      <c r="D53" s="85"/>
-      <c r="E53" s="85"/>
-      <c r="F53" s="85"/>
-      <c r="G53" s="85"/>
-      <c r="H53" s="85"/>
-      <c r="I53" s="85"/>
-      <c r="J53" s="85"/>
-      <c r="K53" s="85"/>
-      <c r="L53" s="85"/>
-      <c r="M53" s="85"/>
-      <c r="N53" s="85"/>
-      <c r="O53" s="85"/>
-      <c r="P53" s="85"/>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A54" s="85"/>
-      <c r="B54" s="85"/>
-      <c r="C54" s="85"/>
-      <c r="D54" s="85"/>
-      <c r="E54" s="85"/>
-      <c r="F54" s="85"/>
-      <c r="G54" s="85"/>
-      <c r="H54" s="85"/>
-      <c r="I54" s="85"/>
-      <c r="J54" s="85"/>
-      <c r="K54" s="85"/>
-      <c r="L54" s="85"/>
-      <c r="M54" s="85"/>
-      <c r="N54" s="85"/>
-      <c r="O54" s="85"/>
-      <c r="P54" s="85"/>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A55" s="85"/>
-      <c r="B55" s="85"/>
-      <c r="C55" s="85"/>
-      <c r="D55" s="85"/>
-      <c r="E55" s="85"/>
-      <c r="F55" s="85"/>
-      <c r="G55" s="85"/>
-      <c r="H55" s="85"/>
-      <c r="I55" s="85"/>
-      <c r="J55" s="85"/>
-      <c r="K55" s="85"/>
-      <c r="L55" s="85"/>
-      <c r="M55" s="85"/>
-      <c r="N55" s="85"/>
-      <c r="O55" s="85"/>
-      <c r="P55" s="85"/>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A56" s="85"/>
-      <c r="B56" s="85"/>
-      <c r="C56" s="85"/>
-      <c r="D56" s="85"/>
-      <c r="E56" s="85"/>
-      <c r="F56" s="85"/>
-      <c r="G56" s="85"/>
-      <c r="H56" s="85"/>
-      <c r="I56" s="85"/>
-      <c r="J56" s="85"/>
-      <c r="K56" s="85"/>
-      <c r="L56" s="85"/>
-      <c r="M56" s="85"/>
-      <c r="N56" s="85"/>
-      <c r="O56" s="85"/>
-      <c r="P56" s="85"/>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A57" s="85"/>
-      <c r="B57" s="85"/>
-      <c r="C57" s="85"/>
-      <c r="D57" s="85"/>
-      <c r="E57" s="85"/>
-      <c r="F57" s="85"/>
-      <c r="G57" s="85"/>
-      <c r="H57" s="85"/>
-      <c r="I57" s="85"/>
-      <c r="J57" s="85"/>
-      <c r="K57" s="85"/>
-      <c r="L57" s="85"/>
-      <c r="M57" s="85"/>
-      <c r="N57" s="85"/>
-      <c r="O57" s="85"/>
-      <c r="P57" s="85"/>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A58" s="85"/>
-      <c r="B58" s="85"/>
-      <c r="C58" s="85"/>
-      <c r="D58" s="85"/>
-      <c r="E58" s="85"/>
-      <c r="F58" s="85"/>
-      <c r="G58" s="85"/>
-      <c r="H58" s="85"/>
-      <c r="I58" s="85"/>
-      <c r="J58" s="85"/>
-      <c r="K58" s="85"/>
-      <c r="L58" s="85"/>
-      <c r="M58" s="85"/>
-      <c r="N58" s="85"/>
-      <c r="O58" s="85"/>
-      <c r="P58" s="85"/>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A59" s="85"/>
-      <c r="B59" s="85"/>
-      <c r="C59" s="85"/>
-      <c r="D59" s="85"/>
-      <c r="E59" s="85"/>
-      <c r="F59" s="85"/>
-      <c r="G59" s="85"/>
-      <c r="H59" s="85"/>
-      <c r="I59" s="85"/>
-      <c r="J59" s="85"/>
-      <c r="K59" s="85"/>
-      <c r="L59" s="85"/>
-      <c r="M59" s="85"/>
-      <c r="N59" s="85"/>
-      <c r="O59" s="85"/>
-      <c r="P59" s="85"/>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A60" s="85"/>
-      <c r="B60" s="85"/>
-      <c r="C60" s="85"/>
-      <c r="D60" s="85"/>
-      <c r="E60" s="85"/>
-      <c r="F60" s="85"/>
-      <c r="G60" s="85"/>
-      <c r="H60" s="85"/>
-      <c r="I60" s="85"/>
-      <c r="J60" s="85"/>
-      <c r="K60" s="85"/>
-      <c r="L60" s="85"/>
-      <c r="M60" s="85"/>
-      <c r="N60" s="85"/>
-      <c r="O60" s="85"/>
-      <c r="P60" s="85"/>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A61" s="85"/>
-      <c r="B61" s="85"/>
-      <c r="C61" s="85"/>
-      <c r="D61" s="85"/>
-      <c r="E61" s="85"/>
-      <c r="F61" s="85"/>
-      <c r="G61" s="85"/>
-      <c r="H61" s="85"/>
-      <c r="I61" s="85"/>
-      <c r="J61" s="85"/>
-      <c r="K61" s="85"/>
-      <c r="L61" s="85"/>
-      <c r="M61" s="85"/>
-      <c r="N61" s="85"/>
-      <c r="O61" s="85"/>
-      <c r="P61" s="85"/>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O62" s="47"/>
-      <c r="P62" s="47"/>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O63" s="47"/>
-      <c r="P63" s="47"/>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O64" s="47"/>
-      <c r="P64" s="47"/>
+        <v>6.3845951273614407E-2</v>
+      </c>
+      <c r="O25" s="116"/>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="39"/>
+      <c r="R25" s="39"/>
+    </row>
+    <row r="26" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="123"/>
+      <c r="B26" s="123"/>
+      <c r="C26" s="123"/>
+      <c r="D26" s="123"/>
+      <c r="E26" s="123"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="41"/>
+      <c r="N26" s="41"/>
+      <c r="O26" s="39"/>
+      <c r="P26" s="39"/>
+      <c r="Q26" s="39"/>
+      <c r="R26" s="39"/>
+    </row>
+    <row r="27" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="123"/>
+      <c r="B27" s="123"/>
+      <c r="C27" s="123"/>
+      <c r="D27" s="123"/>
+      <c r="E27" s="123"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="41"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="39"/>
+      <c r="Q27" s="39"/>
+      <c r="R27" s="39"/>
+    </row>
+    <row r="28" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="123"/>
+      <c r="B28" s="123"/>
+      <c r="C28" s="123"/>
+      <c r="D28" s="123"/>
+      <c r="E28" s="123"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="41"/>
+      <c r="M28" s="41"/>
+      <c r="N28" s="41"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="39"/>
+      <c r="Q28" s="39"/>
+      <c r="R28" s="39"/>
+    </row>
+    <row r="29" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="123"/>
+      <c r="B29" s="123"/>
+      <c r="C29" s="123"/>
+      <c r="D29" s="123"/>
+      <c r="E29" s="123"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="41"/>
+      <c r="N29" s="41"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="39"/>
+      <c r="Q29" s="39"/>
+      <c r="R29" s="39"/>
+    </row>
+    <row r="30" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="123"/>
+      <c r="B30" s="123"/>
+      <c r="C30" s="123"/>
+      <c r="D30" s="123"/>
+      <c r="E30" s="123"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="41"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="41"/>
+      <c r="M30" s="41"/>
+      <c r="N30" s="41"/>
+      <c r="O30" s="39"/>
+      <c r="P30" s="39"/>
+      <c r="Q30" s="39"/>
+      <c r="R30" s="39"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A31" s="39"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="39"/>
+      <c r="O31" s="39"/>
+      <c r="P31" s="39"/>
+      <c r="Q31" s="39"/>
+      <c r="R31" s="39"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A32" s="39"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="39"/>
+      <c r="O32" s="39"/>
+      <c r="P32" s="39"/>
+      <c r="Q32" s="39"/>
+      <c r="R32" s="39"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A33" s="41"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="41"/>
+      <c r="I33" s="41"/>
+      <c r="J33" s="41"/>
+      <c r="K33" s="41"/>
+      <c r="L33" s="41"/>
+      <c r="M33" s="41"/>
+      <c r="N33" s="41"/>
+      <c r="O33" s="41"/>
+      <c r="P33" s="41"/>
+      <c r="Q33" s="39"/>
+      <c r="R33" s="39"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A34" s="41"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="41"/>
+      <c r="J34" s="41"/>
+      <c r="K34" s="41"/>
+      <c r="L34" s="41"/>
+      <c r="M34" s="41"/>
+      <c r="N34" s="41"/>
+      <c r="O34" s="41"/>
+      <c r="P34" s="41"/>
+      <c r="Q34" s="39"/>
+      <c r="R34" s="39"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A35" s="41"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="41"/>
+      <c r="J35" s="41"/>
+      <c r="K35" s="41"/>
+      <c r="L35" s="41"/>
+      <c r="M35" s="41"/>
+      <c r="N35" s="41"/>
+      <c r="O35" s="41"/>
+      <c r="P35" s="41"/>
+      <c r="Q35" s="39"/>
+      <c r="R35" s="39"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A36" s="41"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="41"/>
+      <c r="G36" s="41"/>
+      <c r="H36" s="41"/>
+      <c r="I36" s="41"/>
+      <c r="J36" s="41"/>
+      <c r="K36" s="41"/>
+      <c r="L36" s="41"/>
+      <c r="M36" s="41"/>
+      <c r="N36" s="41"/>
+      <c r="O36" s="41"/>
+      <c r="P36" s="41"/>
+      <c r="Q36" s="39"/>
+      <c r="R36" s="39"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A37" s="41"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="41"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="41"/>
+      <c r="J37" s="41"/>
+      <c r="K37" s="41"/>
+      <c r="L37" s="41"/>
+      <c r="M37" s="41"/>
+      <c r="N37" s="41"/>
+      <c r="O37" s="41"/>
+      <c r="P37" s="41"/>
+      <c r="Q37" s="39"/>
+      <c r="R37" s="39"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A38" s="41"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="41"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="41"/>
+      <c r="K38" s="41"/>
+      <c r="L38" s="41"/>
+      <c r="M38" s="41"/>
+      <c r="N38" s="41"/>
+      <c r="O38" s="41"/>
+      <c r="P38" s="41"/>
+      <c r="Q38" s="39"/>
+      <c r="R38" s="39"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A39" s="41"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="41"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="41"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="41"/>
+      <c r="N39" s="41"/>
+      <c r="O39" s="41"/>
+      <c r="P39" s="41"/>
+      <c r="Q39" s="39"/>
+      <c r="R39" s="39"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A40" s="41"/>
+      <c r="B40" s="41"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="41"/>
+      <c r="L40" s="41"/>
+      <c r="M40" s="41"/>
+      <c r="N40" s="41"/>
+      <c r="O40" s="41"/>
+      <c r="P40" s="41"/>
+      <c r="Q40" s="39"/>
+      <c r="R40" s="39"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A41" s="41"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="41"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="41"/>
+      <c r="J41" s="41"/>
+      <c r="K41" s="41"/>
+      <c r="L41" s="41"/>
+      <c r="M41" s="41"/>
+      <c r="N41" s="41"/>
+      <c r="O41" s="41"/>
+      <c r="P41" s="41"/>
+      <c r="Q41" s="39"/>
+      <c r="R41" s="39"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A42" s="41"/>
+      <c r="B42" s="41"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="41"/>
+      <c r="E42" s="41"/>
+      <c r="F42" s="41"/>
+      <c r="G42" s="41"/>
+      <c r="H42" s="41"/>
+      <c r="I42" s="41"/>
+      <c r="J42" s="41"/>
+      <c r="K42" s="41"/>
+      <c r="L42" s="41"/>
+      <c r="M42" s="41"/>
+      <c r="N42" s="41"/>
+      <c r="O42" s="41"/>
+      <c r="P42" s="41"/>
+      <c r="Q42" s="39"/>
+      <c r="R42" s="39"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A43" s="41"/>
+      <c r="B43" s="41"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="41"/>
+      <c r="E43" s="41"/>
+      <c r="F43" s="41"/>
+      <c r="G43" s="41"/>
+      <c r="H43" s="41"/>
+      <c r="I43" s="41"/>
+      <c r="J43" s="41"/>
+      <c r="K43" s="41"/>
+      <c r="L43" s="41"/>
+      <c r="M43" s="41"/>
+      <c r="N43" s="41"/>
+      <c r="O43" s="41"/>
+      <c r="P43" s="41"/>
+      <c r="Q43" s="39"/>
+      <c r="R43" s="39"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A44" s="41"/>
+      <c r="B44" s="41"/>
+      <c r="C44" s="41"/>
+      <c r="D44" s="41"/>
+      <c r="E44" s="41"/>
+      <c r="F44" s="41"/>
+      <c r="G44" s="41"/>
+      <c r="H44" s="41"/>
+      <c r="I44" s="41"/>
+      <c r="J44" s="41"/>
+      <c r="K44" s="41"/>
+      <c r="L44" s="41"/>
+      <c r="M44" s="41"/>
+      <c r="N44" s="41"/>
+      <c r="O44" s="41"/>
+      <c r="P44" s="41"/>
+      <c r="Q44" s="39"/>
+      <c r="R44" s="39"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A45" s="41"/>
+      <c r="B45" s="41"/>
+      <c r="C45" s="41"/>
+      <c r="D45" s="41"/>
+      <c r="E45" s="41"/>
+      <c r="F45" s="41"/>
+      <c r="G45" s="41"/>
+      <c r="H45" s="41"/>
+      <c r="I45" s="41"/>
+      <c r="J45" s="41"/>
+      <c r="K45" s="41"/>
+      <c r="L45" s="41"/>
+      <c r="M45" s="41"/>
+      <c r="N45" s="41"/>
+      <c r="O45" s="41"/>
+      <c r="P45" s="41"/>
+      <c r="Q45" s="39"/>
+      <c r="R45" s="39"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A46" s="41"/>
+      <c r="B46" s="41"/>
+      <c r="C46" s="41"/>
+      <c r="D46" s="41"/>
+      <c r="E46" s="41"/>
+      <c r="F46" s="41"/>
+      <c r="G46" s="41"/>
+      <c r="H46" s="41"/>
+      <c r="I46" s="41"/>
+      <c r="J46" s="41"/>
+      <c r="K46" s="41"/>
+      <c r="L46" s="41"/>
+      <c r="M46" s="41"/>
+      <c r="N46" s="41"/>
+      <c r="O46" s="41"/>
+      <c r="P46" s="41"/>
+      <c r="Q46" s="39"/>
+      <c r="R46" s="39"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A47" s="41"/>
+      <c r="B47" s="41"/>
+      <c r="C47" s="41"/>
+      <c r="D47" s="41"/>
+      <c r="E47" s="41"/>
+      <c r="F47" s="41"/>
+      <c r="G47" s="41"/>
+      <c r="H47" s="41"/>
+      <c r="I47" s="41"/>
+      <c r="J47" s="41"/>
+      <c r="K47" s="41"/>
+      <c r="L47" s="41"/>
+      <c r="M47" s="41"/>
+      <c r="N47" s="41"/>
+      <c r="O47" s="41"/>
+      <c r="P47" s="41"/>
+      <c r="Q47" s="39"/>
+      <c r="R47" s="39"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A48" s="41"/>
+      <c r="B48" s="41"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="41"/>
+      <c r="E48" s="41"/>
+      <c r="F48" s="41"/>
+      <c r="G48" s="41"/>
+      <c r="H48" s="41"/>
+      <c r="I48" s="41"/>
+      <c r="J48" s="41"/>
+      <c r="K48" s="41"/>
+      <c r="L48" s="41"/>
+      <c r="M48" s="41"/>
+      <c r="N48" s="41"/>
+      <c r="O48" s="41"/>
+      <c r="P48" s="41"/>
+      <c r="Q48" s="39"/>
+      <c r="R48" s="39"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A49" s="41"/>
+      <c r="B49" s="41"/>
+      <c r="C49" s="41"/>
+      <c r="D49" s="41"/>
+      <c r="E49" s="41"/>
+      <c r="F49" s="41"/>
+      <c r="G49" s="41"/>
+      <c r="H49" s="41"/>
+      <c r="I49" s="41"/>
+      <c r="J49" s="41"/>
+      <c r="K49" s="41"/>
+      <c r="L49" s="41"/>
+      <c r="M49" s="41"/>
+      <c r="N49" s="41"/>
+      <c r="O49" s="41"/>
+      <c r="P49" s="41"/>
+      <c r="Q49" s="39"/>
+      <c r="R49" s="39"/>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A50" s="41"/>
+      <c r="B50" s="41"/>
+      <c r="C50" s="41"/>
+      <c r="D50" s="41"/>
+      <c r="E50" s="41"/>
+      <c r="F50" s="41"/>
+      <c r="G50" s="41"/>
+      <c r="H50" s="41"/>
+      <c r="I50" s="41"/>
+      <c r="J50" s="41"/>
+      <c r="K50" s="41"/>
+      <c r="L50" s="41"/>
+      <c r="M50" s="41"/>
+      <c r="N50" s="41"/>
+      <c r="O50" s="41"/>
+      <c r="P50" s="41"/>
+      <c r="Q50" s="39"/>
+      <c r="R50" s="39"/>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A51" s="41"/>
+      <c r="B51" s="41"/>
+      <c r="C51" s="41"/>
+      <c r="D51" s="41"/>
+      <c r="E51" s="41"/>
+      <c r="F51" s="41"/>
+      <c r="G51" s="41"/>
+      <c r="H51" s="41"/>
+      <c r="I51" s="41"/>
+      <c r="J51" s="41"/>
+      <c r="K51" s="41"/>
+      <c r="L51" s="41"/>
+      <c r="M51" s="41"/>
+      <c r="N51" s="41"/>
+      <c r="O51" s="41"/>
+      <c r="P51" s="41"/>
+      <c r="Q51" s="39"/>
+      <c r="R51" s="39"/>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A52" s="41"/>
+      <c r="B52" s="41"/>
+      <c r="C52" s="41"/>
+      <c r="D52" s="41"/>
+      <c r="E52" s="41"/>
+      <c r="F52" s="41"/>
+      <c r="G52" s="41"/>
+      <c r="H52" s="41"/>
+      <c r="I52" s="41"/>
+      <c r="J52" s="41"/>
+      <c r="K52" s="41"/>
+      <c r="L52" s="41"/>
+      <c r="M52" s="41"/>
+      <c r="N52" s="41"/>
+      <c r="O52" s="41"/>
+      <c r="P52" s="41"/>
+      <c r="Q52" s="39"/>
+      <c r="R52" s="39"/>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A53" s="41"/>
+      <c r="B53" s="41"/>
+      <c r="C53" s="41"/>
+      <c r="D53" s="41"/>
+      <c r="E53" s="41"/>
+      <c r="F53" s="41"/>
+      <c r="G53" s="41"/>
+      <c r="H53" s="41"/>
+      <c r="I53" s="41"/>
+      <c r="J53" s="41"/>
+      <c r="K53" s="41"/>
+      <c r="L53" s="41"/>
+      <c r="M53" s="41"/>
+      <c r="N53" s="41"/>
+      <c r="O53" s="41"/>
+      <c r="P53" s="41"/>
+      <c r="Q53" s="39"/>
+      <c r="R53" s="39"/>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A54" s="41"/>
+      <c r="B54" s="41"/>
+      <c r="C54" s="41"/>
+      <c r="D54" s="41"/>
+      <c r="E54" s="41"/>
+      <c r="F54" s="41"/>
+      <c r="G54" s="41"/>
+      <c r="H54" s="41"/>
+      <c r="I54" s="41"/>
+      <c r="J54" s="41"/>
+      <c r="K54" s="41"/>
+      <c r="L54" s="41"/>
+      <c r="M54" s="41"/>
+      <c r="N54" s="41"/>
+      <c r="O54" s="41"/>
+      <c r="P54" s="41"/>
+      <c r="Q54" s="39"/>
+      <c r="R54" s="39"/>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A55" s="41"/>
+      <c r="B55" s="41"/>
+      <c r="C55" s="41"/>
+      <c r="D55" s="41"/>
+      <c r="E55" s="41"/>
+      <c r="F55" s="41"/>
+      <c r="G55" s="41"/>
+      <c r="H55" s="41"/>
+      <c r="I55" s="41"/>
+      <c r="J55" s="41"/>
+      <c r="K55" s="41"/>
+      <c r="L55" s="41"/>
+      <c r="M55" s="41"/>
+      <c r="N55" s="41"/>
+      <c r="O55" s="41"/>
+      <c r="P55" s="41"/>
+      <c r="Q55" s="39"/>
+      <c r="R55" s="39"/>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A56" s="41"/>
+      <c r="B56" s="41"/>
+      <c r="C56" s="41"/>
+      <c r="D56" s="41"/>
+      <c r="E56" s="41"/>
+      <c r="F56" s="41"/>
+      <c r="G56" s="41"/>
+      <c r="H56" s="41"/>
+      <c r="I56" s="41"/>
+      <c r="J56" s="41"/>
+      <c r="K56" s="41"/>
+      <c r="L56" s="41"/>
+      <c r="M56" s="41"/>
+      <c r="N56" s="41"/>
+      <c r="O56" s="41"/>
+      <c r="P56" s="41"/>
+      <c r="Q56" s="39"/>
+      <c r="R56" s="39"/>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A57" s="41"/>
+      <c r="B57" s="41"/>
+      <c r="C57" s="41"/>
+      <c r="D57" s="41"/>
+      <c r="E57" s="41"/>
+      <c r="F57" s="41"/>
+      <c r="G57" s="41"/>
+      <c r="H57" s="41"/>
+      <c r="I57" s="41"/>
+      <c r="J57" s="41"/>
+      <c r="K57" s="41"/>
+      <c r="L57" s="41"/>
+      <c r="M57" s="41"/>
+      <c r="N57" s="41"/>
+      <c r="O57" s="41"/>
+      <c r="P57" s="41"/>
+      <c r="Q57" s="39"/>
+      <c r="R57" s="39"/>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A58" s="41"/>
+      <c r="B58" s="41"/>
+      <c r="C58" s="41"/>
+      <c r="D58" s="41"/>
+      <c r="E58" s="41"/>
+      <c r="F58" s="41"/>
+      <c r="G58" s="41"/>
+      <c r="H58" s="41"/>
+      <c r="I58" s="41"/>
+      <c r="J58" s="41"/>
+      <c r="K58" s="41"/>
+      <c r="L58" s="41"/>
+      <c r="M58" s="41"/>
+      <c r="N58" s="41"/>
+      <c r="O58" s="41"/>
+      <c r="P58" s="41"/>
+      <c r="Q58" s="39"/>
+      <c r="R58" s="39"/>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A59" s="41"/>
+      <c r="B59" s="41"/>
+      <c r="C59" s="41"/>
+      <c r="D59" s="41"/>
+      <c r="E59" s="41"/>
+      <c r="F59" s="41"/>
+      <c r="G59" s="41"/>
+      <c r="H59" s="41"/>
+      <c r="I59" s="41"/>
+      <c r="J59" s="41"/>
+      <c r="K59" s="41"/>
+      <c r="L59" s="41"/>
+      <c r="M59" s="41"/>
+      <c r="N59" s="41"/>
+      <c r="O59" s="41"/>
+      <c r="P59" s="41"/>
+      <c r="Q59" s="39"/>
+      <c r="R59" s="39"/>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A60" s="41"/>
+      <c r="B60" s="41"/>
+      <c r="C60" s="41"/>
+      <c r="D60" s="41"/>
+      <c r="E60" s="41"/>
+      <c r="F60" s="41"/>
+      <c r="G60" s="41"/>
+      <c r="H60" s="41"/>
+      <c r="I60" s="41"/>
+      <c r="J60" s="41"/>
+      <c r="K60" s="41"/>
+      <c r="L60" s="41"/>
+      <c r="M60" s="41"/>
+      <c r="N60" s="41"/>
+      <c r="O60" s="41"/>
+      <c r="P60" s="41"/>
+      <c r="Q60" s="39"/>
+      <c r="R60" s="39"/>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A61" s="41"/>
+      <c r="B61" s="41"/>
+      <c r="C61" s="41"/>
+      <c r="D61" s="41"/>
+      <c r="E61" s="41"/>
+      <c r="F61" s="41"/>
+      <c r="G61" s="41"/>
+      <c r="H61" s="41"/>
+      <c r="I61" s="41"/>
+      <c r="J61" s="41"/>
+      <c r="K61" s="41"/>
+      <c r="L61" s="41"/>
+      <c r="M61" s="41"/>
+      <c r="N61" s="41"/>
+      <c r="O61" s="41"/>
+      <c r="P61" s="41"/>
+      <c r="Q61" s="39"/>
+      <c r="R61" s="39"/>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O62" s="39"/>
+      <c r="P62" s="39"/>
+      <c r="Q62" s="39"/>
+      <c r="R62" s="39"/>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O63" s="39"/>
+      <c r="P63" s="39"/>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O64" s="39"/>
+      <c r="P64" s="39"/>
     </row>
     <row r="65" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O65" s="47"/>
-      <c r="P65" s="47"/>
+      <c r="O65" s="39"/>
+      <c r="P65" s="39"/>
     </row>
     <row r="66" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O66" s="47"/>
-      <c r="P66" s="47"/>
+      <c r="O66" s="39"/>
+      <c r="P66" s="39"/>
     </row>
     <row r="67" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O67" s="47"/>
-      <c r="P67" s="47"/>
+      <c r="O67" s="39"/>
+      <c r="P67" s="39"/>
     </row>
     <row r="68" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O68" s="47"/>
-      <c r="P68" s="47"/>
+      <c r="O68" s="39"/>
+      <c r="P68" s="39"/>
     </row>
     <row r="69" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O69" s="47"/>
-      <c r="P69" s="47"/>
+      <c r="O69" s="39"/>
+      <c r="P69" s="39"/>
     </row>
     <row r="70" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O70" s="47"/>
-      <c r="P70" s="47"/>
+      <c r="O70" s="39"/>
+      <c r="P70" s="39"/>
     </row>
     <row r="71" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O71" s="47"/>
-      <c r="P71" s="47"/>
+      <c r="O71" s="39"/>
+      <c r="P71" s="39"/>
     </row>
     <row r="72" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O72" s="47"/>
-      <c r="P72" s="47"/>
+      <c r="O72" s="39"/>
+      <c r="P72" s="39"/>
     </row>
     <row r="73" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O73" s="47"/>
-      <c r="P73" s="47"/>
+      <c r="O73" s="39"/>
+      <c r="P73" s="39"/>
     </row>
     <row r="74" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O74" s="47"/>
-      <c r="P74" s="47"/>
+      <c r="O74" s="39"/>
+      <c r="P74" s="39"/>
     </row>
     <row r="75" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O75" s="47"/>
-      <c r="P75" s="47"/>
+      <c r="O75" s="39"/>
+      <c r="P75" s="39"/>
     </row>
     <row r="76" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O76" s="47"/>
-      <c r="P76" s="47"/>
+      <c r="O76" s="39"/>
+      <c r="P76" s="39"/>
     </row>
     <row r="77" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O77" s="47"/>
-      <c r="P77" s="47"/>
+      <c r="O77" s="39"/>
+      <c r="P77" s="39"/>
     </row>
     <row r="78" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O78" s="47"/>
-      <c r="P78" s="47"/>
+      <c r="O78" s="39"/>
+      <c r="P78" s="39"/>
     </row>
     <row r="79" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O79" s="47"/>
-      <c r="P79" s="47"/>
+      <c r="O79" s="39"/>
+      <c r="P79" s="39"/>
     </row>
     <row r="80" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O80" s="47"/>
-      <c r="P80" s="47"/>
+      <c r="O80" s="39"/>
+      <c r="P80" s="39"/>
     </row>
     <row r="81" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O81" s="47"/>
-      <c r="P81" s="47"/>
+      <c r="O81" s="39"/>
+      <c r="P81" s="39"/>
     </row>
     <row r="82" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O82" s="47"/>
-      <c r="P82" s="47"/>
+      <c r="O82" s="39"/>
+      <c r="P82" s="39"/>
     </row>
     <row r="83" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O83" s="47"/>
-      <c r="P83" s="47"/>
+      <c r="O83" s="39"/>
+      <c r="P83" s="39"/>
     </row>
     <row r="84" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O84" s="47"/>
-      <c r="P84" s="47"/>
+      <c r="O84" s="39"/>
+      <c r="P84" s="39"/>
     </row>
     <row r="85" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O85" s="47"/>
-      <c r="P85" s="47"/>
+      <c r="O85" s="39"/>
+      <c r="P85" s="39"/>
     </row>
     <row r="86" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O86" s="47"/>
-      <c r="P86" s="47"/>
+      <c r="O86" s="39"/>
+      <c r="P86" s="39"/>
     </row>
     <row r="87" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O87" s="47"/>
-      <c r="P87" s="47"/>
+      <c r="O87" s="39"/>
+      <c r="P87" s="39"/>
     </row>
     <row r="88" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O88" s="47"/>
-      <c r="P88" s="47"/>
+      <c r="O88" s="39"/>
+      <c r="P88" s="39"/>
     </row>
     <row r="89" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O89" s="47"/>
-      <c r="P89" s="47"/>
+      <c r="O89" s="39"/>
+      <c r="P89" s="39"/>
     </row>
     <row r="90" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O90" s="47"/>
-      <c r="P90" s="47"/>
+      <c r="O90" s="39"/>
+      <c r="P90" s="39"/>
     </row>
     <row r="91" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O91" s="47"/>
-      <c r="P91" s="47"/>
+      <c r="O91" s="39"/>
+      <c r="P91" s="39"/>
     </row>
     <row r="92" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O92" s="47"/>
-      <c r="P92" s="47"/>
+      <c r="O92" s="39"/>
+      <c r="P92" s="39"/>
     </row>
     <row r="93" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O93" s="47"/>
-      <c r="P93" s="47"/>
+      <c r="O93" s="39"/>
+      <c r="P93" s="39"/>
     </row>
     <row r="94" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O94" s="47"/>
-      <c r="P94" s="47"/>
+      <c r="O94" s="39"/>
+      <c r="P94" s="39"/>
     </row>
     <row r="95" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O95" s="47"/>
-      <c r="P95" s="47"/>
+      <c r="O95" s="39"/>
+      <c r="P95" s="39"/>
     </row>
     <row r="96" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O96" s="47"/>
-      <c r="P96" s="47"/>
+      <c r="O96" s="39"/>
+      <c r="P96" s="39"/>
     </row>
     <row r="97" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O97" s="47"/>
-      <c r="P97" s="47"/>
+      <c r="O97" s="39"/>
+      <c r="P97" s="39"/>
     </row>
     <row r="98" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O98" s="47"/>
-      <c r="P98" s="47"/>
+      <c r="O98" s="39"/>
+      <c r="P98" s="39"/>
     </row>
     <row r="99" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O99" s="47"/>
-      <c r="P99" s="47"/>
+      <c r="O99" s="39"/>
+      <c r="P99" s="39"/>
     </row>
     <row r="100" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O100" s="47"/>
-      <c r="P100" s="47"/>
+      <c r="O100" s="39"/>
+      <c r="P100" s="39"/>
     </row>
     <row r="101" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O101" s="47"/>
-      <c r="P101" s="47"/>
+      <c r="O101" s="39"/>
+      <c r="P101" s="39"/>
     </row>
     <row r="102" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O102" s="47"/>
-      <c r="P102" s="47"/>
+      <c r="O102" s="39"/>
+      <c r="P102" s="39"/>
     </row>
     <row r="103" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O103" s="47"/>
-      <c r="P103" s="47"/>
+      <c r="O103" s="39"/>
+      <c r="P103" s="39"/>
     </row>
     <row r="104" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O104" s="47"/>
-      <c r="P104" s="47"/>
+      <c r="O104" s="39"/>
+      <c r="P104" s="39"/>
     </row>
     <row r="105" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O105" s="47"/>
-      <c r="P105" s="47"/>
+      <c r="O105" s="39"/>
+      <c r="P105" s="39"/>
     </row>
     <row r="106" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O106" s="47"/>
-      <c r="P106" s="47"/>
+      <c r="O106" s="39"/>
+      <c r="P106" s="39"/>
     </row>
     <row r="107" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O107" s="47"/>
-      <c r="P107" s="47"/>
+      <c r="O107" s="39"/>
+      <c r="P107" s="39"/>
     </row>
     <row r="108" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O108" s="47"/>
-      <c r="P108" s="47"/>
+      <c r="O108" s="39"/>
+      <c r="P108" s="39"/>
     </row>
     <row r="109" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O109" s="47"/>
-      <c r="P109" s="47"/>
+      <c r="O109" s="39"/>
+      <c r="P109" s="39"/>
     </row>
     <row r="110" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O110" s="47"/>
-      <c r="P110" s="47"/>
+      <c r="O110" s="39"/>
+      <c r="P110" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A20:E27"/>
     <mergeCell ref="N24:O24"/>
     <mergeCell ref="N25:O25"/>
     <mergeCell ref="A1:XFD2"/>
@@ -17413,8 +17825,9 @@
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="N13:O13"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A22:E30"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:E21"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F9" r:id="rId1" display="https://finbox.com/BATS:CBOE/explorer/revenue_proj" xr:uid="{0AC0C39F-C5C5-B74F-A8EB-159A5638A6D7}"/>

--- a/Financials/CBOE Global Markets.xlsx
+++ b/Financials/CBOE Global Markets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Financials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94994CB2-F218-1548-B3E8-C3BBD32BE388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{143C5B8E-29F8-B74A-ABE4-189737E1F4C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1797,10 +1797,12 @@
       <sheetName val="Financials"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
-      <sheetName val="Commodities"/>
+      <sheetName val="Basic Materials"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="High Growth"/>
-      <sheetName val="GARP"/>
+      <sheetName val="Fidelity"/>
+      <sheetName val="Schwab"/>
+      <sheetName val="Top Consumer Stocks"/>
+      <sheetName val="Dividend Portfolio"/>
       <sheetName val="Watchlist"/>
       <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
@@ -1820,7 +1822,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.2709999999999998E-2</v>
+            <v>4.1210000000000004E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1833,6 +1835,8 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1960,11 +1964,11 @@
     <v>Powered by Refinitiv</v>
     <v>183.74</v>
     <v>116.11</v>
-    <v>0.59699999999999998</v>
-    <v>-1.93</v>
-    <v>-1.0592999999999998E-2</v>
-    <v>0.01</v>
-    <v>5.5479999999999997E-5</v>
+    <v>0.57230000000000003</v>
+    <v>1.46</v>
+    <v>8.2360000000000003E-3</v>
+    <v>0.45</v>
+    <v>2.5180000000000003E-3</v>
     <v>USD</v>
     <v>Cboe Global Markets, Inc. is a provider of market infrastructure and tradable products, delivering trading, and clearing and investment solutions to market participants. Its segments include Options, North American Equities, Europe and Asia Pacific, Futures, Global FX., and Digital. The Options segment includes options on market indices (index options), as well as on the stocks of individual corporations (equity options). The North American Equities segment includes listed United States equities transaction services. The Europe and Asia Pacific segment includes the pan-European listed equities and derivatives transaction services, exchange-traded products (ETPs), exchange-traded commodities, and international depository receipts. The Futures segment includes transaction services provided by its electronic futures exchange, Cboe Futures Exchange, LLC (CFE). The Global FX segment includes institutional foreign exchange (FX) trading services. The Digital segment includes Cboe Digital.</v>
     <v>1543</v>
@@ -1972,25 +1976,25 @@
     <v>BATS</v>
     <v>BATS</v>
     <v>433 WEST VAN BUREN STREET, CHICAGO, IL, 60607 US</v>
-    <v>183.74</v>
+    <v>179.08</v>
     <v>Investment Banking &amp; Investment Services</v>
     <v>Stock</v>
-    <v>45261.984934907028</v>
+    <v>45268.960013992968</v>
     <v>0</v>
-    <v>180.26</v>
-    <v>19027524560</v>
+    <v>176.01</v>
+    <v>18864968320</v>
     <v>Cboe Global Markets, Inc.</v>
     <v>Cboe Global Markets, Inc.</v>
-    <v>182.23</v>
+    <v>176.79</v>
     <v>62.533999999999999</v>
-    <v>182.19</v>
-    <v>180.26</v>
-    <v>180.27</v>
+    <v>177.26</v>
+    <v>178.72</v>
+    <v>179.17</v>
     <v>105556000</v>
     <v>CBOE</v>
     <v>Cboe Global Markets, Inc. (BATS:CBOE)</v>
-    <v>1392995</v>
-    <v>884704</v>
+    <v>806066</v>
+    <v>949312</v>
     <v>2006</v>
   </rv>
   <rv s="2">
@@ -15905,7 +15909,7 @@
   <dimension ref="A1:R110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15954,7 +15958,7 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="48" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>19027524560</v>
+        <v>18864968320</v>
       </c>
       <c r="B3" s="49" t="s">
         <v>201</v>
@@ -15982,14 +15986,14 @@
       </c>
       <c r="I3" s="53">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>23378240723.296398</v>
+        <v>24349727351.239601</v>
       </c>
       <c r="J3" s="54" t="s">
         <v>205</v>
       </c>
       <c r="K3" s="55">
         <f>Financials!O172*-1/Model!A3</f>
-        <v>1.1210076188702079E-2</v>
+        <v>1.1306671518439105E-2</v>
       </c>
       <c r="L3" s="56" t="s">
         <v>250</v>
@@ -16034,14 +16038,14 @@
       </c>
       <c r="I4" s="62">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>20608951013.832897</v>
+        <v>21467532620.285965</v>
       </c>
       <c r="J4" s="60" t="s">
         <v>211</v>
       </c>
       <c r="K4" s="63" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>-1.0592999999999998E-2</v>
+        <v>8.2360000000000003E-3</v>
       </c>
       <c r="L4" s="64" t="s">
         <v>251</v>
@@ -16086,14 +16090,14 @@
       </c>
       <c r="I5" s="62">
         <f>I4+G5-G6</f>
-        <v>19399651013.832897</v>
+        <v>20258232620.285965</v>
       </c>
       <c r="J5" s="60" t="s">
         <v>217</v>
       </c>
       <c r="K5" s="66" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>180.26</v>
+        <v>178.72</v>
       </c>
       <c r="L5" s="67" t="s">
         <v>218</v>
@@ -16113,7 +16117,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="68">
         <f>O20/F10</f>
-        <v>4.5131699620493357</v>
+        <v>4.4746129791271345</v>
       </c>
       <c r="B6" s="58" t="s">
         <v>220</v>
@@ -16141,14 +16145,14 @@
       </c>
       <c r="I6" s="63">
         <f>N25</f>
-        <v>6.3845951273614407E-2</v>
+        <v>6.2296105492276391E-2</v>
       </c>
       <c r="J6" s="60" t="s">
         <v>223</v>
       </c>
       <c r="K6" s="69">
         <f>I5/G4</f>
-        <v>196.40816613050822</v>
+        <v>205.10071625301245</v>
       </c>
       <c r="L6" s="70" t="s">
         <v>224</v>
@@ -16168,14 +16172,14 @@
     <row r="7" spans="1:18" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="71">
         <f>O20/F12</f>
-        <v>24.394262256410258</v>
+        <v>24.185856820512821</v>
       </c>
       <c r="B7" s="72" t="s">
         <v>226</v>
       </c>
       <c r="C7" s="73">
         <f>F15/A3</f>
-        <v>3.9101250278454507E-2</v>
+        <v>3.9438179136046386E-2</v>
       </c>
       <c r="D7" s="72" t="s">
         <v>227</v>
@@ -16202,7 +16206,7 @@
       </c>
       <c r="K7" s="79">
         <f>K6/K5-1</f>
-        <v>8.9582636916166747E-2</v>
+        <v>0.14760920016233459</v>
       </c>
       <c r="L7" s="80" t="s">
         <v>230</v>
@@ -16530,7 +16534,7 @@
       </c>
       <c r="O14" s="106">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.2709999999999998E-2</v>
+        <v>4.1210000000000004E-2</v>
       </c>
       <c r="P14" s="39"/>
       <c r="Q14" s="39"/>
@@ -16577,7 +16581,7 @@
       </c>
       <c r="O15" s="107" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>0.59699999999999998</v>
+        <v>0.57230000000000003</v>
       </c>
       <c r="P15" s="39"/>
       <c r="Q15" s="39"/>
@@ -16682,7 +16686,7 @@
       </c>
       <c r="O17" s="109">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>6.7360130000000004E-2</v>
+        <v>6.5698717000000004E-2</v>
       </c>
       <c r="P17" s="39"/>
       <c r="Q17" s="39"/>
@@ -16764,7 +16768,7 @@
       </c>
       <c r="O20" s="110" cm="1">
         <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>19027524560</v>
+        <v>18864968320</v>
       </c>
       <c r="P20" s="39"/>
       <c r="Q20" s="39"/>
@@ -16794,7 +16798,7 @@
       </c>
       <c r="O21" s="110">
         <f>O19+O20</f>
-        <v>20754124560</v>
+        <v>20591568320</v>
       </c>
       <c r="P21" s="39"/>
       <c r="Q21" s="39"/>
@@ -16822,7 +16826,7 @@
       </c>
       <c r="O22" s="111">
         <f>(O19/O21)</f>
-        <v>8.319310193057837E-2</v>
+        <v>8.3849854132917248E-2</v>
       </c>
       <c r="P22" s="39"/>
       <c r="Q22" s="39"/>
@@ -16847,7 +16851,7 @@
       </c>
       <c r="O23" s="112">
         <f>O20/O21</f>
-        <v>0.91680689806942162</v>
+        <v>0.91615014586708277</v>
       </c>
       <c r="P23" s="39"/>
       <c r="Q23" s="39"/>
@@ -16891,7 +16895,7 @@
       <c r="M25" s="41"/>
       <c r="N25" s="115">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>6.3845951273614407E-2</v>
+        <v>6.2296105492276391E-2</v>
       </c>
       <c r="O25" s="116"/>
       <c r="P25" s="39"/>
